--- a/Tesis/Resultados/Escalon/CS/ACOSTADO_Derecho_layer_0.xlsx
+++ b/Tesis/Resultados/Escalon/CS/ACOSTADO_Derecho_layer_0.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="684">
   <si>
     <t>W_i</t>
   </si>
@@ -31,76 +31,148 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[-0.5781435370445251]</t>
-  </si>
-  <si>
-    <t>[0.1434089094400406]</t>
-  </si>
-  <si>
-    <t>[-0.05361452326178551]</t>
-  </si>
-  <si>
-    <t>[-0.42316317558288574]</t>
-  </si>
-  <si>
-    <t>[-0.6180796027183533]</t>
-  </si>
-  <si>
-    <t>[-0.2611956000328064]</t>
-  </si>
-  <si>
-    <t>[0.08840738236904144]</t>
-  </si>
-  <si>
-    <t>[-0.46557241678237915]</t>
-  </si>
-  <si>
-    <t>[0.5268436670303345]</t>
-  </si>
-  <si>
-    <t>[-0.1256110519170761]</t>
-  </si>
-  <si>
-    <t>[0.5753663778305054]</t>
-  </si>
-  <si>
-    <t>[0.23670658469200134]</t>
-  </si>
-  <si>
-    <t>[0.32825517654418945]</t>
-  </si>
-  <si>
-    <t>[0.2436203956604004]</t>
-  </si>
-  <si>
-    <t>[-0.552574634552002]</t>
-  </si>
-  <si>
-    <t>[0.13508877158164978]</t>
-  </si>
-  <si>
-    <t>[-0.5005534887313843]</t>
-  </si>
-  <si>
-    <t>[-0.07370049506425858]</t>
-  </si>
-  <si>
-    <t>[-0.06530717760324478]</t>
-  </si>
-  <si>
-    <t>[0.5475983023643494]</t>
-  </si>
-  <si>
-    <t>[-0.277099072933197]</t>
-  </si>
-  <si>
-    <t>[-0.011388621293008327]</t>
-  </si>
-  <si>
-    <t>[0.37046778202056885]</t>
-  </si>
-  <si>
-    <t>[-0.17089241743087769]</t>
+    <t>[0.13988204300403595]</t>
+  </si>
+  <si>
+    <t>[0.22533735632896423]</t>
+  </si>
+  <si>
+    <t>[0.10951941460371017]</t>
+  </si>
+  <si>
+    <t>[-0.3121030330657959]</t>
+  </si>
+  <si>
+    <t>[-0.037460245192050934]</t>
+  </si>
+  <si>
+    <t>[-0.3290060758590698]</t>
+  </si>
+  <si>
+    <t>[0.39701974391937256]</t>
+  </si>
+  <si>
+    <t>[0.29960203170776367]</t>
+  </si>
+  <si>
+    <t>[-0.15564395487308502]</t>
+  </si>
+  <si>
+    <t>[-0.38244500756263733]</t>
+  </si>
+  <si>
+    <t>[0.34226861596107483]</t>
+  </si>
+  <si>
+    <t>[0.06493742018938065]</t>
+  </si>
+  <si>
+    <t>[-0.3062664866447449]</t>
+  </si>
+  <si>
+    <t>[-0.029033610597252846]</t>
+  </si>
+  <si>
+    <t>[0.3892953097820282]</t>
+  </si>
+  <si>
+    <t>[-0.16959770023822784]</t>
+  </si>
+  <si>
+    <t>[0.11532976478338242]</t>
+  </si>
+  <si>
+    <t>[0.13438859581947327]</t>
+  </si>
+  <si>
+    <t>[0.2092716246843338]</t>
+  </si>
+  <si>
+    <t>[-0.1654297411441803]</t>
+  </si>
+  <si>
+    <t>[0.37766364216804504]</t>
+  </si>
+  <si>
+    <t>[0.3475686311721802]</t>
+  </si>
+  <si>
+    <t>[0.3535632789134979]</t>
+  </si>
+  <si>
+    <t>[-0.3650984466075897]</t>
+  </si>
+  <si>
+    <t>[0.2058471441268921]</t>
+  </si>
+  <si>
+    <t>[0.011176405474543571]</t>
+  </si>
+  <si>
+    <t>[-0.35144826769828796]</t>
+  </si>
+  <si>
+    <t>[-0.39547401666641235]</t>
+  </si>
+  <si>
+    <t>[-0.16832473874092102]</t>
+  </si>
+  <si>
+    <t>[-0.016788585111498833]</t>
+  </si>
+  <si>
+    <t>[0.5019469261169434]</t>
+  </si>
+  <si>
+    <t>[0.26162365078926086]</t>
+  </si>
+  <si>
+    <t>[0.19114015996456146]</t>
+  </si>
+  <si>
+    <t>[-0.26980075240135193]</t>
+  </si>
+  <si>
+    <t>[0.17971491813659668]</t>
+  </si>
+  <si>
+    <t>[0.05822882428765297]</t>
+  </si>
+  <si>
+    <t>[0.4020611643791199]</t>
+  </si>
+  <si>
+    <t>[0.4631313979625702]</t>
+  </si>
+  <si>
+    <t>[-0.5556818246841431]</t>
+  </si>
+  <si>
+    <t>[0.4422268867492676]</t>
+  </si>
+  <si>
+    <t>[0.24976572394371033]</t>
+  </si>
+  <si>
+    <t>[-0.08140693604946136]</t>
+  </si>
+  <si>
+    <t>[0.19634877145290375]</t>
+  </si>
+  <si>
+    <t>[0.2627703547477722]</t>
+  </si>
+  <si>
+    <t>[-0.4935368597507477]</t>
+  </si>
+  <si>
+    <t>[-0.10341715812683105]</t>
+  </si>
+  <si>
+    <t>[-0.42425987124443054]</t>
+  </si>
+  <si>
+    <t>[-0.3857610523700714]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -115,436 +187,1732 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[0.02516131103038788]</t>
-  </si>
-  <si>
-    <t>[0.08419468998908997]</t>
-  </si>
-  <si>
-    <t>[0.000612512871157378]</t>
-  </si>
-  <si>
-    <t>[-0.1443573385477066]</t>
-  </si>
-  <si>
-    <t>[0.34215056896209717]</t>
-  </si>
-  <si>
-    <t>[0.020526966080069542]</t>
-  </si>
-  <si>
-    <t>[-0.2690463066101074]</t>
-  </si>
-  <si>
-    <t>[0.3712797164916992]</t>
-  </si>
-  <si>
-    <t>[0.04540432244539261]</t>
-  </si>
-  <si>
-    <t>[-0.2140149176120758]</t>
-  </si>
-  <si>
-    <t>[-0.2781587541103363]</t>
-  </si>
-  <si>
-    <t>[0.12456260621547699]</t>
-  </si>
-  <si>
-    <t>[-0.45333266258239746]</t>
-  </si>
-  <si>
-    <t>[0.1478446125984192]</t>
-  </si>
-  <si>
-    <t>[-0.17841479182243347]</t>
-  </si>
-  <si>
-    <t>[-0.15374334156513214]</t>
-  </si>
-  <si>
-    <t>[-0.21174606680870056]</t>
-  </si>
-  <si>
-    <t>[-0.1582782119512558]</t>
-  </si>
-  <si>
-    <t>[0.2825004756450653]</t>
-  </si>
-  <si>
-    <t>[-0.14310653507709503]</t>
-  </si>
-  <si>
-    <t>[0.09159637242555618]</t>
-  </si>
-  <si>
-    <t>[0.33573979139328003]</t>
-  </si>
-  <si>
-    <t>[-0.0069382586516439915]</t>
-  </si>
-  <si>
-    <t>[0.26343193650245667]</t>
-  </si>
-  <si>
-    <t>[-0.1078062430024147]</t>
-  </si>
-  <si>
-    <t>[0.05774512141942978]</t>
-  </si>
-  <si>
-    <t>[-0.06655880808830261]</t>
-  </si>
-  <si>
-    <t>[-0.3351173400878906]</t>
-  </si>
-  <si>
-    <t>[0.14648503065109253]</t>
-  </si>
-  <si>
-    <t>[-0.1069318950176239]</t>
-  </si>
-  <si>
-    <t>[0.26411277055740356]</t>
-  </si>
-  <si>
-    <t>[0.24527892470359802]</t>
-  </si>
-  <si>
-    <t>[0.08341047167778015]</t>
-  </si>
-  <si>
-    <t>[0.2011999934911728]</t>
-  </si>
-  <si>
-    <t>[0.34761980175971985]</t>
-  </si>
-  <si>
-    <t>[0.0153665104880929]</t>
-  </si>
-  <si>
-    <t>[-0.04598204791545868]</t>
-  </si>
-  <si>
-    <t>[0.17619933187961578]</t>
-  </si>
-  <si>
-    <t>[-0.07049734145402908]</t>
-  </si>
-  <si>
-    <t>[-0.0032991787884384394]</t>
-  </si>
-  <si>
-    <t>[0.009040556848049164]</t>
-  </si>
-  <si>
-    <t>[0.16170687973499298]</t>
-  </si>
-  <si>
-    <t>[-0.05186842009425163]</t>
-  </si>
-  <si>
-    <t>[0.5830144882202148]</t>
-  </si>
-  <si>
-    <t>[-0.24222764372825623]</t>
-  </si>
-  <si>
-    <t>[0.18153488636016846]</t>
-  </si>
-  <si>
-    <t>[0.48947280645370483]</t>
-  </si>
-  <si>
-    <t>[-0.4269416928291321]</t>
-  </si>
-  <si>
-    <t>[0.06516356021165848]</t>
-  </si>
-  <si>
-    <t>[0.10735812783241272]</t>
-  </si>
-  <si>
-    <t>[-0.351725310087204]</t>
-  </si>
-  <si>
-    <t>[0.007892769761383533]</t>
-  </si>
-  <si>
-    <t>[-0.16058939695358276]</t>
-  </si>
-  <si>
-    <t>[0.07205325365066528]</t>
-  </si>
-  <si>
-    <t>[-0.036450352519750595]</t>
-  </si>
-  <si>
-    <t>[-0.045070454478263855]</t>
-  </si>
-  <si>
-    <t>[-0.04517163336277008]</t>
-  </si>
-  <si>
-    <t>[0.0014332113787531853]</t>
-  </si>
-  <si>
-    <t>[-0.12060919404029846]</t>
-  </si>
-  <si>
-    <t>[0.2241569608449936]</t>
-  </si>
-  <si>
-    <t>[0.30322325229644775]</t>
-  </si>
-  <si>
-    <t>[0.07666434347629547]</t>
-  </si>
-  <si>
-    <t>[-0.10046623647212982]</t>
-  </si>
-  <si>
-    <t>[-0.38609597086906433]</t>
-  </si>
-  <si>
-    <t>[-0.054435692727565765]</t>
-  </si>
-  <si>
-    <t>[0.14552345871925354]</t>
-  </si>
-  <si>
-    <t>[0.2819593846797943]</t>
-  </si>
-  <si>
-    <t>[0.3524262309074402]</t>
-  </si>
-  <si>
-    <t>[-0.7325232028961182]</t>
-  </si>
-  <si>
-    <t>[0.17841988801956177]</t>
-  </si>
-  <si>
-    <t>[-0.03829510509967804]</t>
-  </si>
-  <si>
-    <t>[-0.1644888073205948]</t>
-  </si>
-  <si>
-    <t>[0.27473345398902893]</t>
-  </si>
-  <si>
-    <t>[-0.2437225878238678]</t>
-  </si>
-  <si>
-    <t>[0.2389017641544342]</t>
-  </si>
-  <si>
-    <t>[0.14220207929611206]</t>
-  </si>
-  <si>
-    <t>[0.5005655884742737]</t>
-  </si>
-  <si>
-    <t>[-0.2053142637014389]</t>
-  </si>
-  <si>
-    <t>[-0.23922817409038544]</t>
-  </si>
-  <si>
-    <t>[0.06636419892311096]</t>
-  </si>
-  <si>
-    <t>[-0.1314316689968109]</t>
-  </si>
-  <si>
-    <t>[-0.470247358083725]</t>
-  </si>
-  <si>
-    <t>[0.17938044667243958]</t>
-  </si>
-  <si>
-    <t>[-0.4394366443157196]</t>
-  </si>
-  <si>
-    <t>[0.04746519401669502]</t>
-  </si>
-  <si>
-    <t>[-0.1112663522362709]</t>
-  </si>
-  <si>
-    <t>[0.08017215132713318]</t>
-  </si>
-  <si>
-    <t>[-0.36962705850601196]</t>
-  </si>
-  <si>
-    <t>[-0.05346246063709259]</t>
-  </si>
-  <si>
-    <t>[0.0696125403046608]</t>
-  </si>
-  <si>
-    <t>[0.20133639872074127]</t>
-  </si>
-  <si>
-    <t>[-0.21472053229808807]</t>
-  </si>
-  <si>
-    <t>[-0.15964215993881226]</t>
-  </si>
-  <si>
-    <t>[-0.3263205885887146]</t>
-  </si>
-  <si>
-    <t>[0.18350081145763397]</t>
-  </si>
-  <si>
-    <t>[0.30638208985328674]</t>
-  </si>
-  <si>
-    <t>[-0.03357180580496788]</t>
-  </si>
-  <si>
-    <t>[0.501691997051239]</t>
-  </si>
-  <si>
-    <t>[-0.055610291659832]</t>
-  </si>
-  <si>
-    <t>[-0.23454438149929047]</t>
-  </si>
-  <si>
-    <t>[0.19266262650489807]</t>
-  </si>
-  <si>
-    <t>[0.09708546847105026]</t>
-  </si>
-  <si>
-    <t>[0.1474495232105255]</t>
-  </si>
-  <si>
-    <t>[0.03092028945684433]</t>
-  </si>
-  <si>
-    <t>[-0.38766348361968994]</t>
-  </si>
-  <si>
-    <t>[-0.11531060934066772]</t>
-  </si>
-  <si>
-    <t>[-0.16365179419517517]</t>
-  </si>
-  <si>
-    <t>[0.05202191323041916]</t>
-  </si>
-  <si>
-    <t>[0.11786065995693207]</t>
-  </si>
-  <si>
-    <t>[-0.2694733440876007]</t>
-  </si>
-  <si>
-    <t>[0.11107128858566284]</t>
-  </si>
-  <si>
-    <t>[0.33806490898132324]</t>
-  </si>
-  <si>
-    <t>[0.3964119851589203]</t>
-  </si>
-  <si>
-    <t>[0.336611807346344]</t>
-  </si>
-  <si>
-    <t>[0.10248502343893051]</t>
-  </si>
-  <si>
-    <t>[-0.21030013263225555]</t>
-  </si>
-  <si>
-    <t>[0.15455541014671326]</t>
-  </si>
-  <si>
-    <t>[-0.05288901552557945]</t>
-  </si>
-  <si>
-    <t>[-0.1283538043498993]</t>
-  </si>
-  <si>
-    <t>[0.3618927299976349]</t>
-  </si>
-  <si>
-    <t>[-0.03407181426882744]</t>
-  </si>
-  <si>
-    <t>[0.19465550780296326]</t>
-  </si>
-  <si>
-    <t>[-0.36594995856285095]</t>
-  </si>
-  <si>
-    <t>[0.2468031942844391]</t>
-  </si>
-  <si>
-    <t>[0.09787871688604355]</t>
-  </si>
-  <si>
-    <t>[0.23085816204547882]</t>
-  </si>
-  <si>
-    <t>[0.056659821420907974]</t>
-  </si>
-  <si>
-    <t>[-0.09145382046699524]</t>
-  </si>
-  <si>
-    <t>[0.4916144609451294]</t>
-  </si>
-  <si>
-    <t>[0.41047918796539307]</t>
-  </si>
-  <si>
-    <t>[-0.02744564414024353]</t>
-  </si>
-  <si>
-    <t>[-0.05885614827275276]</t>
-  </si>
-  <si>
-    <t>[0.05489267408847809]</t>
-  </si>
-  <si>
-    <t>[0.30389517545700073]</t>
-  </si>
-  <si>
-    <t>[-0.60488361120224]</t>
-  </si>
-  <si>
-    <t>[-0.07688689231872559]</t>
-  </si>
-  <si>
-    <t>[-0.21826860308647156]</t>
-  </si>
-  <si>
-    <t>[0.4560936391353607]</t>
-  </si>
-  <si>
-    <t>[0.018466802313923836]</t>
-  </si>
-  <si>
-    <t>[0.10200712829828262]</t>
-  </si>
-  <si>
-    <t>[-0.29740941524505615]</t>
-  </si>
-  <si>
-    <t>[-0.13872459530830383]</t>
-  </si>
-  <si>
-    <t>[0.10407201200723648]</t>
-  </si>
-  <si>
-    <t>[-0.579644501209259]</t>
+    <t>[-0.34831133484840393]</t>
+  </si>
+  <si>
+    <t>[-0.19308140873908997]</t>
+  </si>
+  <si>
+    <t>[0.06211677938699722]</t>
+  </si>
+  <si>
+    <t>[0.2787071466445923]</t>
+  </si>
+  <si>
+    <t>[0.04335111752152443]</t>
+  </si>
+  <si>
+    <t>[0.02054295502603054]</t>
+  </si>
+  <si>
+    <t>[0.17463332414627075]</t>
+  </si>
+  <si>
+    <t>[0.08322294801473618]</t>
+  </si>
+  <si>
+    <t>[-0.18922413885593414]</t>
+  </si>
+  <si>
+    <t>[0.09402448683977127]</t>
+  </si>
+  <si>
+    <t>[-0.1300264596939087]</t>
+  </si>
+  <si>
+    <t>[0.30234116315841675]</t>
+  </si>
+  <si>
+    <t>[0.3466002941131592]</t>
+  </si>
+  <si>
+    <t>[-0.09454577416181564]</t>
+  </si>
+  <si>
+    <t>[0.08580917865037918]</t>
+  </si>
+  <si>
+    <t>[0.18383632600307465]</t>
+  </si>
+  <si>
+    <t>[-0.05558178201317787]</t>
+  </si>
+  <si>
+    <t>[-0.14560481905937195]</t>
+  </si>
+  <si>
+    <t>[-0.1257847547531128]</t>
+  </si>
+  <si>
+    <t>[0.28449907898902893]</t>
+  </si>
+  <si>
+    <t>[-0.4581669569015503]</t>
+  </si>
+  <si>
+    <t>[-0.3017711937427521]</t>
+  </si>
+  <si>
+    <t>[-0.21913917362689972]</t>
+  </si>
+  <si>
+    <t>[0.14941085875034332]</t>
+  </si>
+  <si>
+    <t>[-0.03229411318898201]</t>
+  </si>
+  <si>
+    <t>[0.07673516124486923]</t>
+  </si>
+  <si>
+    <t>[-0.16356655955314636]</t>
+  </si>
+  <si>
+    <t>[0.10527275502681732]</t>
+  </si>
+  <si>
+    <t>[0.09383420646190643]</t>
+  </si>
+  <si>
+    <t>[-0.018707143142819405]</t>
+  </si>
+  <si>
+    <t>[-0.02703864686191082]</t>
+  </si>
+  <si>
+    <t>[0.03436506167054176]</t>
+  </si>
+  <si>
+    <t>[0.22544050216674805]</t>
+  </si>
+  <si>
+    <t>[0.23523761332035065]</t>
+  </si>
+  <si>
+    <t>[0.013743279501795769]</t>
+  </si>
+  <si>
+    <t>[-0.0005643825861625373]</t>
+  </si>
+  <si>
+    <t>[-0.13315026462078094]</t>
+  </si>
+  <si>
+    <t>[0.01632562279701233]</t>
+  </si>
+  <si>
+    <t>[0.018005959689617157]</t>
+  </si>
+  <si>
+    <t>[0.15982463955879211]</t>
+  </si>
+  <si>
+    <t>[-0.23916998505592346]</t>
+  </si>
+  <si>
+    <t>[0.08855221420526505]</t>
+  </si>
+  <si>
+    <t>[-0.26684287190437317]</t>
+  </si>
+  <si>
+    <t>[0.14928226172924042]</t>
+  </si>
+  <si>
+    <t>[0.01873367466032505]</t>
+  </si>
+  <si>
+    <t>[0.08367747068405151]</t>
+  </si>
+  <si>
+    <t>[0.23686151206493378]</t>
+  </si>
+  <si>
+    <t>[-0.049475084990262985]</t>
+  </si>
+  <si>
+    <t>[-0.14880892634391785]</t>
+  </si>
+  <si>
+    <t>[-0.17287935316562653]</t>
+  </si>
+  <si>
+    <t>[-0.0511043407022953]</t>
+  </si>
+  <si>
+    <t>[-0.048040226101875305]</t>
+  </si>
+  <si>
+    <t>[-0.10987725853919983]</t>
+  </si>
+  <si>
+    <t>[-0.04461360350251198]</t>
+  </si>
+  <si>
+    <t>[-0.04954257607460022]</t>
+  </si>
+  <si>
+    <t>[-0.060877155512571335]</t>
+  </si>
+  <si>
+    <t>[-0.17662309110164642]</t>
+  </si>
+  <si>
+    <t>[0.07639800012111664]</t>
+  </si>
+  <si>
+    <t>[-0.08587678521871567]</t>
+  </si>
+  <si>
+    <t>[0.07414247840642929]</t>
+  </si>
+  <si>
+    <t>[0.02790004573762417]</t>
+  </si>
+  <si>
+    <t>[0.034663278609514236]</t>
+  </si>
+  <si>
+    <t>[-0.006726848892867565]</t>
+  </si>
+  <si>
+    <t>[0.16818051040172577]</t>
+  </si>
+  <si>
+    <t>[-0.21902626752853394]</t>
+  </si>
+  <si>
+    <t>[0.030285866931080818]</t>
+  </si>
+  <si>
+    <t>[-0.13263939321041107]</t>
+  </si>
+  <si>
+    <t>[-0.1390395313501358]</t>
+  </si>
+  <si>
+    <t>[-0.226769357919693]</t>
+  </si>
+  <si>
+    <t>[0.14480741322040558]</t>
+  </si>
+  <si>
+    <t>[-0.25954675674438477]</t>
+  </si>
+  <si>
+    <t>[-0.05057699233293533]</t>
+  </si>
+  <si>
+    <t>[-0.1518370807170868]</t>
+  </si>
+  <si>
+    <t>[0.034887075424194336]</t>
+  </si>
+  <si>
+    <t>[-0.046690136194229126]</t>
+  </si>
+  <si>
+    <t>[-0.20444728434085846]</t>
+  </si>
+  <si>
+    <t>[-0.18371595442295074]</t>
+  </si>
+  <si>
+    <t>[0.06557657569646835]</t>
+  </si>
+  <si>
+    <t>[-0.018323607742786407]</t>
+  </si>
+  <si>
+    <t>[0.20284461975097656]</t>
+  </si>
+  <si>
+    <t>[0.14685486257076263]</t>
+  </si>
+  <si>
+    <t>[-0.03349124267697334]</t>
+  </si>
+  <si>
+    <t>[0.07439353317022324]</t>
+  </si>
+  <si>
+    <t>[-0.09301494807004929]</t>
+  </si>
+  <si>
+    <t>[-0.10835333168506622]</t>
+  </si>
+  <si>
+    <t>[0.08320458233356476]</t>
+  </si>
+  <si>
+    <t>[0.026575321331620216]</t>
+  </si>
+  <si>
+    <t>[-0.18080823123455048]</t>
+  </si>
+  <si>
+    <t>[0.3540933132171631]</t>
+  </si>
+  <si>
+    <t>[0.24732956290245056]</t>
+  </si>
+  <si>
+    <t>[-0.011984869837760925]</t>
+  </si>
+  <si>
+    <t>[0.2611076235771179]</t>
+  </si>
+  <si>
+    <t>[-0.18462605774402618]</t>
+  </si>
+  <si>
+    <t>[-0.052654772996902466]</t>
+  </si>
+  <si>
+    <t>[0.22329530119895935]</t>
+  </si>
+  <si>
+    <t>[-0.34039953351020813]</t>
+  </si>
+  <si>
+    <t>[0.04798688367009163]</t>
+  </si>
+  <si>
+    <t>[0.08604779094457626]</t>
+  </si>
+  <si>
+    <t>[0.17566676437854767]</t>
+  </si>
+  <si>
+    <t>[0.0327770933508873]</t>
+  </si>
+  <si>
+    <t>[-0.05660629644989967]</t>
+  </si>
+  <si>
+    <t>[0.33155760169029236]</t>
+  </si>
+  <si>
+    <t>[0.3259959816932678]</t>
+  </si>
+  <si>
+    <t>[0.02171909250319004]</t>
+  </si>
+  <si>
+    <t>[-0.0811266228556633]</t>
+  </si>
+  <si>
+    <t>[0.0350671149790287]</t>
+  </si>
+  <si>
+    <t>[-0.2106856107711792]</t>
+  </si>
+  <si>
+    <t>[-0.05455335974693298]</t>
+  </si>
+  <si>
+    <t>[-0.2035888135433197]</t>
+  </si>
+  <si>
+    <t>[-0.0033129029907286167]</t>
+  </si>
+  <si>
+    <t>[0.2241799682378769]</t>
+  </si>
+  <si>
+    <t>[-0.03676733374595642]</t>
+  </si>
+  <si>
+    <t>[0.29351088404655457]</t>
+  </si>
+  <si>
+    <t>[0.15467272698879242]</t>
+  </si>
+  <si>
+    <t>[0.09340152144432068]</t>
+  </si>
+  <si>
+    <t>[0.057952020317316055]</t>
+  </si>
+  <si>
+    <t>[-0.05226336047053337]</t>
+  </si>
+  <si>
+    <t>[-0.13499553501605988]</t>
+  </si>
+  <si>
+    <t>[-0.03433157876133919]</t>
+  </si>
+  <si>
+    <t>[-0.12743467092514038]</t>
+  </si>
+  <si>
+    <t>[-0.15163534879684448]</t>
+  </si>
+  <si>
+    <t>[0.09143619239330292]</t>
+  </si>
+  <si>
+    <t>[0.002691549016162753]</t>
+  </si>
+  <si>
+    <t>[-0.054414764046669006]</t>
+  </si>
+  <si>
+    <t>[-0.13598750531673431]</t>
+  </si>
+  <si>
+    <t>[0.06293325871229172]</t>
+  </si>
+  <si>
+    <t>[-0.4341979920864105]</t>
+  </si>
+  <si>
+    <t>[0.15174688398838043]</t>
+  </si>
+  <si>
+    <t>[-0.11863574385643005]</t>
+  </si>
+  <si>
+    <t>[-0.1999019980430603]</t>
+  </si>
+  <si>
+    <t>[0.021193260326981544]</t>
+  </si>
+  <si>
+    <t>[-0.1456265151500702]</t>
+  </si>
+  <si>
+    <t>[0.013240082189440727]</t>
+  </si>
+  <si>
+    <t>[0.10357332974672318]</t>
+  </si>
+  <si>
+    <t>[-0.01395580917596817]</t>
+  </si>
+  <si>
+    <t>[-0.13481467962265015]</t>
+  </si>
+  <si>
+    <t>[-0.0427822507917881]</t>
+  </si>
+  <si>
+    <t>[-0.023637833073735237]</t>
+  </si>
+  <si>
+    <t>[-0.2182190716266632]</t>
+  </si>
+  <si>
+    <t>[-0.10795104503631592]</t>
+  </si>
+  <si>
+    <t>[-0.11478716880083084]</t>
+  </si>
+  <si>
+    <t>[-0.1038430705666542]</t>
+  </si>
+  <si>
+    <t>[-0.037840262055397034]</t>
+  </si>
+  <si>
+    <t>[0.028827447444200516]</t>
+  </si>
+  <si>
+    <t>[0.40377166867256165]</t>
+  </si>
+  <si>
+    <t>[0.008473056368529797]</t>
+  </si>
+  <si>
+    <t>[0.23215164244174957]</t>
+  </si>
+  <si>
+    <t>[-0.27322712540626526]</t>
+  </si>
+  <si>
+    <t>[0.03774514049291611]</t>
+  </si>
+  <si>
+    <t>[-0.0767190083861351]</t>
+  </si>
+  <si>
+    <t>[-0.19895720481872559]</t>
+  </si>
+  <si>
+    <t>[0.2180795818567276]</t>
+  </si>
+  <si>
+    <t>[-0.1970960795879364]</t>
+  </si>
+  <si>
+    <t>[0.01666015014052391]</t>
+  </si>
+  <si>
+    <t>[0.02814031019806862]</t>
+  </si>
+  <si>
+    <t>[-0.16708914935588837]</t>
+  </si>
+  <si>
+    <t>[-0.04480163753032684]</t>
+  </si>
+  <si>
+    <t>[0.23773270845413208]</t>
+  </si>
+  <si>
+    <t>[0.1528102308511734]</t>
+  </si>
+  <si>
+    <t>[0.2170543521642685]</t>
+  </si>
+  <si>
+    <t>[-0.051097285002470016]</t>
+  </si>
+  <si>
+    <t>[-0.0016677038511261344]</t>
+  </si>
+  <si>
+    <t>[0.11264997720718384]</t>
+  </si>
+  <si>
+    <t>[0.01835833489894867]</t>
+  </si>
+  <si>
+    <t>[0.39363735914230347]</t>
+  </si>
+  <si>
+    <t>[-0.054678160697221756]</t>
+  </si>
+  <si>
+    <t>[-0.017827674746513367]</t>
+  </si>
+  <si>
+    <t>[-0.05830953270196915]</t>
+  </si>
+  <si>
+    <t>[0.055032528936862946]</t>
+  </si>
+  <si>
+    <t>[0.006548807490617037]</t>
+  </si>
+  <si>
+    <t>[-0.17537537217140198]</t>
+  </si>
+  <si>
+    <t>[0.04533142223954201]</t>
+  </si>
+  <si>
+    <t>[0.01791595295071602]</t>
+  </si>
+  <si>
+    <t>[-0.07396582514047623]</t>
+  </si>
+  <si>
+    <t>[-0.07927092164754868]</t>
+  </si>
+  <si>
+    <t>[-0.05900920554995537]</t>
+  </si>
+  <si>
+    <t>[0.33315309882164]</t>
+  </si>
+  <si>
+    <t>[0.0031788963824510574]</t>
+  </si>
+  <si>
+    <t>[-0.0069354563020169735]</t>
+  </si>
+  <si>
+    <t>[-0.24170130491256714]</t>
+  </si>
+  <si>
+    <t>[0.1571529060602188]</t>
+  </si>
+  <si>
+    <t>[0.014502167701721191]</t>
+  </si>
+  <si>
+    <t>[-0.3342258334159851]</t>
+  </si>
+  <si>
+    <t>[-0.08229014277458191]</t>
+  </si>
+  <si>
+    <t>[-0.07749036699533463]</t>
+  </si>
+  <si>
+    <t>[0.08310571312904358]</t>
+  </si>
+  <si>
+    <t>[0.012477699667215347]</t>
+  </si>
+  <si>
+    <t>[-0.17050857841968536]</t>
+  </si>
+  <si>
+    <t>[0.004949717782437801]</t>
+  </si>
+  <si>
+    <t>[-0.16920819878578186]</t>
+  </si>
+  <si>
+    <t>[-0.2769545912742615]</t>
+  </si>
+  <si>
+    <t>[-0.05303678661584854]</t>
+  </si>
+  <si>
+    <t>[-0.09949199855327606]</t>
+  </si>
+  <si>
+    <t>[-0.033915672451257706]</t>
+  </si>
+  <si>
+    <t>[0.09534118324518204]</t>
+  </si>
+  <si>
+    <t>[0.08598552644252777]</t>
+  </si>
+  <si>
+    <t>[0.09637656062841415]</t>
+  </si>
+  <si>
+    <t>[0.17217640578746796]</t>
+  </si>
+  <si>
+    <t>[0.13438966870307922]</t>
+  </si>
+  <si>
+    <t>[0.026383118703961372]</t>
+  </si>
+  <si>
+    <t>[-0.12083953619003296]</t>
+  </si>
+  <si>
+    <t>[0.00036915286909788847]</t>
+  </si>
+  <si>
+    <t>[-0.0020680383313447237]</t>
+  </si>
+  <si>
+    <t>[-0.048353321850299835]</t>
+  </si>
+  <si>
+    <t>[0.12282305210828781]</t>
+  </si>
+  <si>
+    <t>[0.1374402493238449]</t>
+  </si>
+  <si>
+    <t>[-0.16041652858257294]</t>
+  </si>
+  <si>
+    <t>[-0.12002918124198914]</t>
+  </si>
+  <si>
+    <t>[-0.4263089895248413]</t>
+  </si>
+  <si>
+    <t>[-0.09065613895654678]</t>
+  </si>
+  <si>
+    <t>[-0.17809517681598663]</t>
+  </si>
+  <si>
+    <t>[0.037845429033041]</t>
+  </si>
+  <si>
+    <t>[-0.15893734991550446]</t>
+  </si>
+  <si>
+    <t>[0.06583352386951447]</t>
+  </si>
+  <si>
+    <t>[0.19876986742019653]</t>
+  </si>
+  <si>
+    <t>[0.22251875698566437]</t>
+  </si>
+  <si>
+    <t>[-0.13514891266822815]</t>
+  </si>
+  <si>
+    <t>[-0.0056219520047307014]</t>
+  </si>
+  <si>
+    <t>[-0.14098593592643738]</t>
+  </si>
+  <si>
+    <t>[0.006154273636639118]</t>
+  </si>
+  <si>
+    <t>[0.07788044214248657]</t>
+  </si>
+  <si>
+    <t>[0.16005852818489075]</t>
+  </si>
+  <si>
+    <t>[-0.13070012629032135]</t>
+  </si>
+  <si>
+    <t>[0.11044605076313019]</t>
+  </si>
+  <si>
+    <t>[-0.03904033452272415]</t>
+  </si>
+  <si>
+    <t>[0.20737914741039276]</t>
+  </si>
+  <si>
+    <t>[-0.03609054535627365]</t>
+  </si>
+  <si>
+    <t>[-0.20239904522895813]</t>
+  </si>
+  <si>
+    <t>[-0.024500245228409767]</t>
+  </si>
+  <si>
+    <t>[-0.20267443358898163]</t>
+  </si>
+  <si>
+    <t>[0.2746939957141876]</t>
+  </si>
+  <si>
+    <t>[-0.19509285688400269]</t>
+  </si>
+  <si>
+    <t>[-0.3196779787540436]</t>
+  </si>
+  <si>
+    <t>[-0.19046226143836975]</t>
+  </si>
+  <si>
+    <t>[0.0442824512720108]</t>
+  </si>
+  <si>
+    <t>[-0.0910097062587738]</t>
+  </si>
+  <si>
+    <t>[-0.06454582512378693]</t>
+  </si>
+  <si>
+    <t>[0.08046883344650269]</t>
+  </si>
+  <si>
+    <t>[0.4982334077358246]</t>
+  </si>
+  <si>
+    <t>[-0.24311326444149017]</t>
+  </si>
+  <si>
+    <t>[-0.14619483053684235]</t>
+  </si>
+  <si>
+    <t>[-0.2103695124387741]</t>
+  </si>
+  <si>
+    <t>[0.05475826933979988]</t>
+  </si>
+  <si>
+    <t>[0.22764095664024353]</t>
+  </si>
+  <si>
+    <t>[-0.1689179539680481]</t>
+  </si>
+  <si>
+    <t>[-0.0030669900588691235]</t>
+  </si>
+  <si>
+    <t>[-0.13072748482227325]</t>
+  </si>
+  <si>
+    <t>[0.06285608559846878]</t>
+  </si>
+  <si>
+    <t>[0.07902297377586365]</t>
+  </si>
+  <si>
+    <t>[0.3011808693408966]</t>
+  </si>
+  <si>
+    <t>[0.08257465064525604]</t>
+  </si>
+  <si>
+    <t>[0.007460248190909624]</t>
+  </si>
+  <si>
+    <t>[-0.01190896611660719]</t>
+  </si>
+  <si>
+    <t>[-0.2792515456676483]</t>
+  </si>
+  <si>
+    <t>[-0.4369982182979584]</t>
+  </si>
+  <si>
+    <t>[0.1874285340309143]</t>
+  </si>
+  <si>
+    <t>[0.048994798213243484]</t>
+  </si>
+  <si>
+    <t>[-0.01722290739417076]</t>
+  </si>
+  <si>
+    <t>[0.18408247828483582]</t>
+  </si>
+  <si>
+    <t>[0.07032463699579239]</t>
+  </si>
+  <si>
+    <t>[-0.13889804482460022]</t>
+  </si>
+  <si>
+    <t>[-0.03819818049669266]</t>
+  </si>
+  <si>
+    <t>[0.012701575644314289]</t>
+  </si>
+  <si>
+    <t>[0.098370760679245]</t>
+  </si>
+  <si>
+    <t>[-0.2341850847005844]</t>
+  </si>
+  <si>
+    <t>[-0.10690001398324966]</t>
+  </si>
+  <si>
+    <t>[-0.24179990589618683]</t>
+  </si>
+  <si>
+    <t>[0.1315721571445465]</t>
+  </si>
+  <si>
+    <t>[-0.17970547080039978]</t>
+  </si>
+  <si>
+    <t>[-0.09605998545885086]</t>
+  </si>
+  <si>
+    <t>[0.06669528037309647]</t>
+  </si>
+  <si>
+    <t>[0.12246545404195786]</t>
+  </si>
+  <si>
+    <t>[0.07911834865808487]</t>
+  </si>
+  <si>
+    <t>[-0.04385354742407799]</t>
+  </si>
+  <si>
+    <t>[-0.16166570782661438]</t>
+  </si>
+  <si>
+    <t>[-0.25160467624664307]</t>
+  </si>
+  <si>
+    <t>[-0.20400038361549377]</t>
+  </si>
+  <si>
+    <t>[0.0006343115819618106]</t>
+  </si>
+  <si>
+    <t>[0.08655735105276108]</t>
+  </si>
+  <si>
+    <t>[-0.031471461057662964]</t>
+  </si>
+  <si>
+    <t>[-0.14069373905658722]</t>
+  </si>
+  <si>
+    <t>[-0.29785972833633423]</t>
+  </si>
+  <si>
+    <t>[-0.06640344113111496]</t>
+  </si>
+  <si>
+    <t>[0.07408542931079865]</t>
+  </si>
+  <si>
+    <t>[-0.1990719735622406]</t>
+  </si>
+  <si>
+    <t>[-0.0735725685954094]</t>
+  </si>
+  <si>
+    <t>[0.1344211995601654]</t>
+  </si>
+  <si>
+    <t>[0.13155417144298553]</t>
+  </si>
+  <si>
+    <t>[0.11675920337438583]</t>
+  </si>
+  <si>
+    <t>[0.1855720579624176]</t>
+  </si>
+  <si>
+    <t>[0.2590121030807495]</t>
+  </si>
+  <si>
+    <t>[-0.03890637680888176]</t>
+  </si>
+  <si>
+    <t>[-0.2917068898677826]</t>
+  </si>
+  <si>
+    <t>[0.022788915783166885]</t>
+  </si>
+  <si>
+    <t>[0.14785555005073547]</t>
+  </si>
+  <si>
+    <t>[0.151602640748024]</t>
+  </si>
+  <si>
+    <t>[-0.1977156549692154]</t>
+  </si>
+  <si>
+    <t>[-0.12151288241147995]</t>
+  </si>
+  <si>
+    <t>[0.16879361867904663]</t>
+  </si>
+  <si>
+    <t>[0.11660758405923843]</t>
+  </si>
+  <si>
+    <t>[-0.16966815292835236]</t>
+  </si>
+  <si>
+    <t>[0.018664538860321045]</t>
+  </si>
+  <si>
+    <t>[-0.11735165119171143]</t>
+  </si>
+  <si>
+    <t>[-0.08711694926023483]</t>
+  </si>
+  <si>
+    <t>[0.26060667634010315]</t>
+  </si>
+  <si>
+    <t>[-0.09094834327697754]</t>
+  </si>
+  <si>
+    <t>[0.19268527626991272]</t>
+  </si>
+  <si>
+    <t>[-0.06305749714374542]</t>
+  </si>
+  <si>
+    <t>[0.309310644865036]</t>
+  </si>
+  <si>
+    <t>[0.21272943913936615]</t>
+  </si>
+  <si>
+    <t>[0.10920829325914383]</t>
+  </si>
+  <si>
+    <t>[0.14861468970775604]</t>
+  </si>
+  <si>
+    <t>[0.28178784251213074]</t>
+  </si>
+  <si>
+    <t>[-0.21221031248569489]</t>
+  </si>
+  <si>
+    <t>[0.030320212244987488]</t>
+  </si>
+  <si>
+    <t>[0.19864995777606964]</t>
+  </si>
+  <si>
+    <t>[0.07005638629198074]</t>
+  </si>
+  <si>
+    <t>[-0.14593566954135895]</t>
+  </si>
+  <si>
+    <t>[-0.17446504533290863]</t>
+  </si>
+  <si>
+    <t>[0.16529569029808044]</t>
+  </si>
+  <si>
+    <t>[0.098042793571949]</t>
+  </si>
+  <si>
+    <t>[-0.07931409776210785]</t>
+  </si>
+  <si>
+    <t>[0.400752991437912]</t>
+  </si>
+  <si>
+    <t>[-0.006310435011982918]</t>
+  </si>
+  <si>
+    <t>[0.07478225231170654]</t>
+  </si>
+  <si>
+    <t>[0.16759014129638672]</t>
+  </si>
+  <si>
+    <t>[-0.06860905885696411]</t>
+  </si>
+  <si>
+    <t>[0.020586084574460983]</t>
+  </si>
+  <si>
+    <t>[0.13502342998981476]</t>
+  </si>
+  <si>
+    <t>[0.15870746970176697]</t>
+  </si>
+  <si>
+    <t>[0.09627105295658112]</t>
+  </si>
+  <si>
+    <t>[0.10495728999376297]</t>
+  </si>
+  <si>
+    <t>[0.08800702542066574]</t>
+  </si>
+  <si>
+    <t>[0.1600312739610672]</t>
+  </si>
+  <si>
+    <t>[0.02276945672929287]</t>
+  </si>
+  <si>
+    <t>[0.006350292824208736]</t>
+  </si>
+  <si>
+    <t>[0.12872257828712463]</t>
+  </si>
+  <si>
+    <t>[-0.01956658996641636]</t>
+  </si>
+  <si>
+    <t>[-0.19847814738750458]</t>
+  </si>
+  <si>
+    <t>[0.21833017468452454]</t>
+  </si>
+  <si>
+    <t>[0.1064634621143341]</t>
+  </si>
+  <si>
+    <t>[0.2860086262226105]</t>
+  </si>
+  <si>
+    <t>[-0.18456058204174042]</t>
+  </si>
+  <si>
+    <t>[0.04471904784440994]</t>
+  </si>
+  <si>
+    <t>[0.005013839807361364]</t>
+  </si>
+  <si>
+    <t>[0.05977296456694603]</t>
+  </si>
+  <si>
+    <t>[-0.18272250890731812]</t>
+  </si>
+  <si>
+    <t>[0.1686498522758484]</t>
+  </si>
+  <si>
+    <t>[0.13586397469043732]</t>
+  </si>
+  <si>
+    <t>[-0.4270939230918884]</t>
+  </si>
+  <si>
+    <t>[0.06902684271335602]</t>
+  </si>
+  <si>
+    <t>[-0.001616841647773981]</t>
+  </si>
+  <si>
+    <t>[-0.23255965113639832]</t>
+  </si>
+  <si>
+    <t>[0.17021381855010986]</t>
+  </si>
+  <si>
+    <t>[-0.013160825707018375]</t>
+  </si>
+  <si>
+    <t>[0.07988452911376953]</t>
+  </si>
+  <si>
+    <t>[-0.11395855247974396]</t>
+  </si>
+  <si>
+    <t>[0.1243138313293457]</t>
+  </si>
+  <si>
+    <t>[-0.21289627254009247]</t>
+  </si>
+  <si>
+    <t>[0.0987812802195549]</t>
+  </si>
+  <si>
+    <t>[-0.06652073562145233]</t>
+  </si>
+  <si>
+    <t>[-0.3071204125881195]</t>
+  </si>
+  <si>
+    <t>[0.10484004765748978]</t>
+  </si>
+  <si>
+    <t>[0.10938503593206406]</t>
+  </si>
+  <si>
+    <t>[0.15691563487052917]</t>
+  </si>
+  <si>
+    <t>[0.0728076621890068]</t>
+  </si>
+  <si>
+    <t>[-0.0028355754911899567]</t>
+  </si>
+  <si>
+    <t>[0.20078513026237488]</t>
+  </si>
+  <si>
+    <t>[0.03349365293979645]</t>
+  </si>
+  <si>
+    <t>[0.32877224683761597]</t>
+  </si>
+  <si>
+    <t>[0.11243225634098053]</t>
+  </si>
+  <si>
+    <t>[0.07889002561569214]</t>
+  </si>
+  <si>
+    <t>[-0.17072507739067078]</t>
+  </si>
+  <si>
+    <t>[-0.14415791630744934]</t>
+  </si>
+  <si>
+    <t>[0.19577354192733765]</t>
+  </si>
+  <si>
+    <t>[-0.12270691245794296]</t>
+  </si>
+  <si>
+    <t>[-0.15828627347946167]</t>
+  </si>
+  <si>
+    <t>[-0.035663459450006485]</t>
+  </si>
+  <si>
+    <t>[-0.07892320305109024]</t>
+  </si>
+  <si>
+    <t>[-0.0389811210334301]</t>
+  </si>
+  <si>
+    <t>[-0.13378934562206268]</t>
+  </si>
+  <si>
+    <t>[-0.012392866425216198]</t>
+  </si>
+  <si>
+    <t>[-0.19518081843852997]</t>
+  </si>
+  <si>
+    <t>[-0.13231919705867767]</t>
+  </si>
+  <si>
+    <t>[-0.07462237775325775]</t>
+  </si>
+  <si>
+    <t>[0.2941953241825104]</t>
+  </si>
+  <si>
+    <t>[-0.022753683850169182]</t>
+  </si>
+  <si>
+    <t>[0.23960068821907043]</t>
+  </si>
+  <si>
+    <t>[0.2668578624725342]</t>
+  </si>
+  <si>
+    <t>[-0.05233846604824066]</t>
+  </si>
+  <si>
+    <t>[-0.03012153133749962]</t>
+  </si>
+  <si>
+    <t>[-0.0797780454158783]</t>
+  </si>
+  <si>
+    <t>[-0.1774178147315979]</t>
+  </si>
+  <si>
+    <t>[0.2119484841823578]</t>
+  </si>
+  <si>
+    <t>[0.09877196699380875]</t>
+  </si>
+  <si>
+    <t>[0.07568927109241486]</t>
+  </si>
+  <si>
+    <t>[0.006220098584890366]</t>
+  </si>
+  <si>
+    <t>[0.010377936996519566]</t>
+  </si>
+  <si>
+    <t>[-0.029565222561359406]</t>
+  </si>
+  <si>
+    <t>[0.08882968872785568]</t>
+  </si>
+  <si>
+    <t>[-0.020424334332346916]</t>
+  </si>
+  <si>
+    <t>[-0.08943755179643631]</t>
+  </si>
+  <si>
+    <t>[-0.21476764976978302]</t>
+  </si>
+  <si>
+    <t>[-0.02691546641290188]</t>
+  </si>
+  <si>
+    <t>[-0.08815395087003708]</t>
+  </si>
+  <si>
+    <t>[-0.13384145498275757]</t>
+  </si>
+  <si>
+    <t>[0.12785282731056213]</t>
+  </si>
+  <si>
+    <t>[-0.17106875777244568]</t>
+  </si>
+  <si>
+    <t>[0.12381735444068909]</t>
+  </si>
+  <si>
+    <t>[0.02267397567629814]</t>
+  </si>
+  <si>
+    <t>[-0.054362665861845016]</t>
+  </si>
+  <si>
+    <t>[0.0791720598936081]</t>
+  </si>
+  <si>
+    <t>[0.26329031586647034]</t>
+  </si>
+  <si>
+    <t>[0.19048374891281128]</t>
+  </si>
+  <si>
+    <t>[0.07258669286966324]</t>
+  </si>
+  <si>
+    <t>[0.1279873251914978]</t>
+  </si>
+  <si>
+    <t>[-0.19231536984443665]</t>
+  </si>
+  <si>
+    <t>[0.08645961433649063]</t>
+  </si>
+  <si>
+    <t>[-0.01803191564977169]</t>
+  </si>
+  <si>
+    <t>[-0.4775257408618927]</t>
+  </si>
+  <si>
+    <t>[-0.15019863843917847]</t>
+  </si>
+  <si>
+    <t>[0.20865949988365173]</t>
+  </si>
+  <si>
+    <t>[0.0034221175592392683]</t>
+  </si>
+  <si>
+    <t>[0.051811736077070236]</t>
+  </si>
+  <si>
+    <t>[0.18835675716400146]</t>
+  </si>
+  <si>
+    <t>[0.00951346755027771]</t>
+  </si>
+  <si>
+    <t>[0.06207931041717529]</t>
+  </si>
+  <si>
+    <t>[0.15072664618492126]</t>
+  </si>
+  <si>
+    <t>[0.0324234776198864]</t>
+  </si>
+  <si>
+    <t>[0.007099416572600603]</t>
+  </si>
+  <si>
+    <t>[-0.20229561626911163]</t>
+  </si>
+  <si>
+    <t>[-0.13094952702522278]</t>
+  </si>
+  <si>
+    <t>[-0.21955576539039612]</t>
+  </si>
+  <si>
+    <t>[-0.02596771903336048]</t>
+  </si>
+  <si>
+    <t>[-0.10792285203933716]</t>
+  </si>
+  <si>
+    <t>[0.09686003625392914]</t>
+  </si>
+  <si>
+    <t>[0.15765564143657684]</t>
+  </si>
+  <si>
+    <t>[0.04288364574313164]</t>
+  </si>
+  <si>
+    <t>[-0.09938202798366547]</t>
+  </si>
+  <si>
+    <t>[0.09566394239664078]</t>
+  </si>
+  <si>
+    <t>[-0.23702313005924225]</t>
+  </si>
+  <si>
+    <t>[0.03509165719151497]</t>
+  </si>
+  <si>
+    <t>[-0.42458298802375793]</t>
+  </si>
+  <si>
+    <t>[-0.053469251841306686]</t>
+  </si>
+  <si>
+    <t>[0.1137562096118927]</t>
+  </si>
+  <si>
+    <t>[-0.12240415066480637]</t>
+  </si>
+  <si>
+    <t>[-0.0483892560005188]</t>
+  </si>
+  <si>
+    <t>[0.21534396708011627]</t>
+  </si>
+  <si>
+    <t>[-0.042227279394865036]</t>
+  </si>
+  <si>
+    <t>[-0.28103145956993103]</t>
+  </si>
+  <si>
+    <t>[-0.10195796191692352]</t>
+  </si>
+  <si>
+    <t>[0.054771918803453445]</t>
+  </si>
+  <si>
+    <t>[0.01289704442024231]</t>
+  </si>
+  <si>
+    <t>[0.12658272683620453]</t>
+  </si>
+  <si>
+    <t>[0.10727964341640472]</t>
+  </si>
+  <si>
+    <t>[0.07438971847295761]</t>
+  </si>
+  <si>
+    <t>[0.011938964948058128]</t>
+  </si>
+  <si>
+    <t>[0.13010400533676147]</t>
+  </si>
+  <si>
+    <t>[-0.12304656207561493]</t>
+  </si>
+  <si>
+    <t>[0.16598045825958252]</t>
+  </si>
+  <si>
+    <t>[0.05462100729346275]</t>
+  </si>
+  <si>
+    <t>[0.07373210787773132]</t>
+  </si>
+  <si>
+    <t>[-0.2604973614215851]</t>
+  </si>
+  <si>
+    <t>[-0.19317315518856049]</t>
+  </si>
+  <si>
+    <t>[-0.020144058391451836]</t>
+  </si>
+  <si>
+    <t>[-0.1291661560535431]</t>
+  </si>
+  <si>
+    <t>[-0.06005699560046196]</t>
+  </si>
+  <si>
+    <t>[0.2645193040370941]</t>
+  </si>
+  <si>
+    <t>[-0.25853997468948364]</t>
+  </si>
+  <si>
+    <t>[-0.17260634899139404]</t>
+  </si>
+  <si>
+    <t>[0.1561453491449356]</t>
+  </si>
+  <si>
+    <t>[0.10060633718967438]</t>
+  </si>
+  <si>
+    <t>[0.10967885702848434]</t>
+  </si>
+  <si>
+    <t>[-0.11436004191637039]</t>
+  </si>
+  <si>
+    <t>[0.06710664182901382]</t>
+  </si>
+  <si>
+    <t>[-0.21943442523479462]</t>
+  </si>
+  <si>
+    <t>[-0.20951475203037262]</t>
+  </si>
+  <si>
+    <t>[0.13372212648391724]</t>
+  </si>
+  <si>
+    <t>[0.05790083482861519]</t>
+  </si>
+  <si>
+    <t>[0.022946787998080254]</t>
+  </si>
+  <si>
+    <t>[-0.12826497852802277]</t>
+  </si>
+  <si>
+    <t>[-0.22215043008327484]</t>
+  </si>
+  <si>
+    <t>[-0.00015265414549503475]</t>
+  </si>
+  <si>
+    <t>[-0.3122210204601288]</t>
+  </si>
+  <si>
+    <t>[0.019128799438476562]</t>
+  </si>
+  <si>
+    <t>[-0.09550567716360092]</t>
+  </si>
+  <si>
+    <t>[-0.11696715652942657]</t>
+  </si>
+  <si>
+    <t>[0.18344131112098694]</t>
+  </si>
+  <si>
+    <t>[-0.05673769861459732]</t>
+  </si>
+  <si>
+    <t>[-0.13733917474746704]</t>
+  </si>
+  <si>
+    <t>[0.07318750768899918]</t>
+  </si>
+  <si>
+    <t>[-0.270167738199234]</t>
+  </si>
+  <si>
+    <t>[-0.098504438996315]</t>
+  </si>
+  <si>
+    <t>[-0.05952390283346176]</t>
+  </si>
+  <si>
+    <t>[-0.05253135785460472]</t>
+  </si>
+  <si>
+    <t>[-0.22616809606552124]</t>
+  </si>
+  <si>
+    <t>[-0.2085564136505127]</t>
+  </si>
+  <si>
+    <t>[0.06867809593677521]</t>
+  </si>
+  <si>
+    <t>[0.30622971057891846]</t>
+  </si>
+  <si>
+    <t>[0.09870392084121704]</t>
+  </si>
+  <si>
+    <t>[0.041814520955085754]</t>
+  </si>
+  <si>
+    <t>[-0.2173001766204834]</t>
+  </si>
+  <si>
+    <t>[0.13562680780887604]</t>
+  </si>
+  <si>
+    <t>[-0.03548027575016022]</t>
+  </si>
+  <si>
+    <t>[0.3275495171546936]</t>
+  </si>
+  <si>
+    <t>[-0.02561996877193451]</t>
+  </si>
+  <si>
+    <t>[0.10417520999908447]</t>
+  </si>
+  <si>
+    <t>[-0.055053554475307465]</t>
+  </si>
+  <si>
+    <t>[0.1428835541009903]</t>
+  </si>
+  <si>
+    <t>[0.1081022396683693]</t>
+  </si>
+  <si>
+    <t>[0.06918837875127792]</t>
+  </si>
+  <si>
+    <t>[-0.007704197429120541]</t>
+  </si>
+  <si>
+    <t>[-0.10321535170078278]</t>
+  </si>
+  <si>
+    <t>[-0.020447423681616783]</t>
+  </si>
+  <si>
+    <t>[0.10968174040317535]</t>
+  </si>
+  <si>
+    <t>[0.012004369869828224]</t>
+  </si>
+  <si>
+    <t>[0.0917261615395546]</t>
+  </si>
+  <si>
+    <t>[0.41617441177368164]</t>
+  </si>
+  <si>
+    <t>[-0.1907786726951599]</t>
+  </si>
+  <si>
+    <t>[-0.18124788999557495]</t>
+  </si>
+  <si>
+    <t>[0.2355583906173706]</t>
+  </si>
+  <si>
+    <t>[0.08344537019729614]</t>
+  </si>
+  <si>
+    <t>[-0.18277010321617126]</t>
+  </si>
+  <si>
+    <t>[-0.12409915775060654]</t>
+  </si>
+  <si>
+    <t>[-0.15521591901779175]</t>
+  </si>
+  <si>
+    <t>[0.128071591258049]</t>
+  </si>
+  <si>
+    <t>[-0.12520526349544525]</t>
+  </si>
+  <si>
+    <t>[0.11748367547988892]</t>
+  </si>
+  <si>
+    <t>[-0.13133618235588074]</t>
+  </si>
+  <si>
+    <t>[-0.23321019113063812]</t>
+  </si>
+  <si>
+    <t>[0.0447600856423378]</t>
+  </si>
+  <si>
+    <t>[0.38547539710998535]</t>
+  </si>
+  <si>
+    <t>[-0.02024790272116661]</t>
+  </si>
+  <si>
+    <t>[0.006617346778512001]</t>
+  </si>
+  <si>
+    <t>[-0.130878284573555]</t>
+  </si>
+  <si>
+    <t>[-0.2583165466785431]</t>
+  </si>
+  <si>
+    <t>[-0.15545855462551117]</t>
+  </si>
+  <si>
+    <t>[0.05036967992782593]</t>
+  </si>
+  <si>
+    <t>[0.2868579030036926]</t>
+  </si>
+  <si>
+    <t>[-0.1442311853170395]</t>
+  </si>
+  <si>
+    <t>[0.269199013710022]</t>
+  </si>
+  <si>
+    <t>[-0.3230041265487671]</t>
+  </si>
+  <si>
+    <t>[0.031475938856601715]</t>
+  </si>
+  <si>
+    <t>[-0.15265677869319916]</t>
+  </si>
+  <si>
+    <t>[-0.05432962626218796]</t>
+  </si>
+  <si>
+    <t>[-0.058666959404945374]</t>
+  </si>
+  <si>
+    <t>[-0.14106683433055878]</t>
+  </si>
+  <si>
+    <t>[0.0038962392136454582]</t>
+  </si>
+  <si>
+    <t>[0.09663965553045273]</t>
+  </si>
+  <si>
+    <t>[-0.15834909677505493]</t>
+  </si>
+  <si>
+    <t>[-0.11277572810649872]</t>
+  </si>
+  <si>
+    <t>[0.05301501974463463]</t>
+  </si>
+  <si>
+    <t>[-0.3052840828895569]</t>
+  </si>
+  <si>
+    <t>[0.21950644254684448]</t>
+  </si>
+  <si>
+    <t>[-0.002891099313274026]</t>
+  </si>
+  <si>
+    <t>[-0.1080712229013443]</t>
+  </si>
+  <si>
+    <t>[0.2756446599960327]</t>
+  </si>
+  <si>
+    <t>[-0.1782330721616745]</t>
+  </si>
+  <si>
+    <t>[-0.238663911819458]</t>
+  </si>
+  <si>
+    <t>[-0.15599875152111053]</t>
+  </si>
+  <si>
+    <t>[-0.040066808462142944]</t>
+  </si>
+  <si>
+    <t>[0.0854426845908165]</t>
+  </si>
+  <si>
+    <t>[0.1261546015739441]</t>
+  </si>
+  <si>
+    <t>[0.026478882879018784]</t>
+  </si>
+  <si>
+    <t>[-0.36349600553512573]</t>
+  </si>
+  <si>
+    <t>[-0.261099636554718]</t>
+  </si>
+  <si>
+    <t>[0.2985456883907318]</t>
+  </si>
+  <si>
+    <t>[0.016791541129350662]</t>
+  </si>
+  <si>
+    <t>[0.012097885832190514]</t>
+  </si>
+  <si>
+    <t>[-0.14784082770347595]</t>
+  </si>
+  <si>
+    <t>[-0.16319888830184937]</t>
+  </si>
+  <si>
+    <t>[-0.04048604145646095]</t>
+  </si>
+  <si>
+    <t>[-7.446074596373364e-05]</t>
+  </si>
+  <si>
+    <t>[-0.21680206060409546]</t>
+  </si>
+  <si>
+    <t>[0.17487893998622894]</t>
+  </si>
+  <si>
+    <t>[-0.0584583505988121]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -559,76 +1927,148 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.12535016238689423]</t>
-  </si>
-  <si>
-    <t>[1.0977612733840942]</t>
-  </si>
-  <si>
-    <t>[-0.23793525993824005]</t>
-  </si>
-  <si>
-    <t>[0.06427250057458878]</t>
-  </si>
-  <si>
-    <t>[-0.10641605406999588]</t>
-  </si>
-  <si>
-    <t>[1.0269081592559814]</t>
-  </si>
-  <si>
-    <t>[0.17898817360401154]</t>
-  </si>
-  <si>
-    <t>[0.02031553164124489]</t>
-  </si>
-  <si>
-    <t>[0.261680006980896]</t>
-  </si>
-  <si>
-    <t>[1.224359154701233]</t>
-  </si>
-  <si>
-    <t>[0.2494438737630844]</t>
-  </si>
-  <si>
-    <t>[0.0903804823756218]</t>
-  </si>
-  <si>
-    <t>[0.31406185030937195]</t>
-  </si>
-  <si>
-    <t>[1.2829052209854126]</t>
-  </si>
-  <si>
-    <t>[-0.33652836084365845]</t>
-  </si>
-  <si>
-    <t>[0.13704551756381989]</t>
-  </si>
-  <si>
-    <t>[-0.14727292954921722]</t>
-  </si>
-  <si>
-    <t>[1.0806710720062256]</t>
-  </si>
-  <si>
-    <t>[0.16196958720684052]</t>
-  </si>
-  <si>
-    <t>[0.1628948450088501]</t>
-  </si>
-  <si>
-    <t>[-0.23163577914237976]</t>
-  </si>
-  <si>
-    <t>[1.1864076852798462]</t>
-  </si>
-  <si>
-    <t>[0.21928268671035767]</t>
-  </si>
-  <si>
-    <t>[-0.2509413957595825]</t>
+    <t>[0.15970446169376373]</t>
+  </si>
+  <si>
+    <t>[1.130700707435608]</t>
+  </si>
+  <si>
+    <t>[0.16711777448654175]</t>
+  </si>
+  <si>
+    <t>[-0.1986449807882309]</t>
+  </si>
+  <si>
+    <t>[-0.11551060527563095]</t>
+  </si>
+  <si>
+    <t>[1.0361570119857788]</t>
+  </si>
+  <si>
+    <t>[0.07750824838876724]</t>
+  </si>
+  <si>
+    <t>[0.05307823792099953]</t>
+  </si>
+  <si>
+    <t>[-0.005588367115706205]</t>
+  </si>
+  <si>
+    <t>[1.0301226377487183]</t>
+  </si>
+  <si>
+    <t>[0.10224203020334244]</t>
+  </si>
+  <si>
+    <t>[-0.10859178751707077]</t>
+  </si>
+  <si>
+    <t>[-0.13991837203502655]</t>
+  </si>
+  <si>
+    <t>[1.0853973627090454]</t>
+  </si>
+  <si>
+    <t>[0.1273384839296341]</t>
+  </si>
+  <si>
+    <t>[-0.11449409276247025]</t>
+  </si>
+  <si>
+    <t>[0.13161508738994598]</t>
+  </si>
+  <si>
+    <t>[1.1178463697433472]</t>
+  </si>
+  <si>
+    <t>[0.13107934594154358]</t>
+  </si>
+  <si>
+    <t>[-0.1368733048439026]</t>
+  </si>
+  <si>
+    <t>[0.10573114454746246]</t>
+  </si>
+  <si>
+    <t>[1.1131831407546997]</t>
+  </si>
+  <si>
+    <t>[0.10054311156272888]</t>
+  </si>
+  <si>
+    <t>[-0.10857991129159927]</t>
+  </si>
+  <si>
+    <t>[0.1929897964000702]</t>
+  </si>
+  <si>
+    <t>[1.0509346723556519]</t>
+  </si>
+  <si>
+    <t>[-0.11366641521453857]</t>
+  </si>
+  <si>
+    <t>[-0.07915569096803665]</t>
+  </si>
+  <si>
+    <t>[-0.16253216564655304]</t>
+  </si>
+  <si>
+    <t>[1.0704643726348877]</t>
+  </si>
+  <si>
+    <t>[0.1658390313386917]</t>
+  </si>
+  <si>
+    <t>[0.0728413388133049]</t>
+  </si>
+  <si>
+    <t>[0.03883985057473183]</t>
+  </si>
+  <si>
+    <t>[0.9981495141983032]</t>
+  </si>
+  <si>
+    <t>[0.058573558926582336]</t>
+  </si>
+  <si>
+    <t>[-0.06852982193231583]</t>
+  </si>
+  <si>
+    <t>[0.26749029755592346]</t>
+  </si>
+  <si>
+    <t>[1.2392622232437134]</t>
+  </si>
+  <si>
+    <t>[-0.2711103856563568]</t>
+  </si>
+  <si>
+    <t>[0.17190468311309814]</t>
+  </si>
+  <si>
+    <t>[0.15804293751716614]</t>
+  </si>
+  <si>
+    <t>[1.0980406999588013]</t>
+  </si>
+  <si>
+    <t>[0.15605464577674866]</t>
+  </si>
+  <si>
+    <t>[0.05402045696973801]</t>
+  </si>
+  <si>
+    <t>[-0.12817060947418213]</t>
+  </si>
+  <si>
+    <t>[1.1183713674545288]</t>
+  </si>
+  <si>
+    <t>[-0.2110174000263214]</t>
+  </si>
+  <si>
+    <t>[-0.07331165671348572]</t>
   </si>
 </sst>
 </file>
@@ -977,7 +2417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +2539,108 @@
       </c>
       <c r="E7" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +2654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,16 +2664,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1139,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1156,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1173,16 +2715,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1190,16 +2732,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1207,16 +2749,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1224,16 +2766,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1241,16 +2783,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1258,16 +2800,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1275,16 +2817,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1292,16 +2834,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1309,16 +2851,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1326,16 +2868,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1343,16 +2885,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1360,16 +2902,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1377,16 +2919,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1394,16 +2936,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1411,16 +2953,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1428,16 +2970,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1445,16 +2987,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1462,16 +3004,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1479,16 +3021,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1496,16 +3038,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1513,16 +3055,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1530,16 +3072,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1547,16 +3089,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1564,16 +3106,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1581,16 +3123,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1598,16 +3140,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1615,16 +3157,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1632,16 +3174,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1649,16 +3191,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1666,16 +3208,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1683,16 +3225,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1700,16 +3242,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1717,16 +3259,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1734,16 +3276,1852 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" t="s">
+        <v>274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+      <c r="E58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
+        <v>289</v>
+      </c>
+      <c r="D60" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" t="s">
+        <v>293</v>
+      </c>
+      <c r="D61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" t="s">
+        <v>317</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" t="s">
+        <v>322</v>
+      </c>
+      <c r="E68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" t="s">
+        <v>326</v>
+      </c>
+      <c r="E69" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>329</v>
+      </c>
+      <c r="D70" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>338</v>
+      </c>
+      <c r="E72" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" t="s">
+        <v>341</v>
+      </c>
+      <c r="D73" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="s">
+        <v>345</v>
+      </c>
+      <c r="D74" t="s">
+        <v>346</v>
+      </c>
+      <c r="E74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" t="s">
+        <v>349</v>
+      </c>
+      <c r="D75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D77" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C78" t="s">
+        <v>361</v>
+      </c>
+      <c r="D78" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" t="s">
+        <v>365</v>
+      </c>
+      <c r="D79" t="s">
+        <v>366</v>
+      </c>
+      <c r="E79" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" t="s">
+        <v>369</v>
+      </c>
+      <c r="D80" t="s">
+        <v>370</v>
+      </c>
+      <c r="E80" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" t="s">
+        <v>374</v>
+      </c>
+      <c r="E81" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C82" t="s">
+        <v>377</v>
+      </c>
+      <c r="D82" t="s">
+        <v>378</v>
+      </c>
+      <c r="E82" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>380</v>
+      </c>
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83" t="s">
+        <v>382</v>
+      </c>
+      <c r="E83" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
+        <v>389</v>
+      </c>
+      <c r="D85" t="s">
+        <v>390</v>
+      </c>
+      <c r="E85" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>396</v>
+      </c>
+      <c r="C87" t="s">
+        <v>397</v>
+      </c>
+      <c r="D87" t="s">
+        <v>398</v>
+      </c>
+      <c r="E87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" t="s">
+        <v>409</v>
+      </c>
+      <c r="D90" t="s">
+        <v>410</v>
+      </c>
+      <c r="E90" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" t="s">
+        <v>413</v>
+      </c>
+      <c r="D91" t="s">
+        <v>414</v>
+      </c>
+      <c r="E91" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" t="s">
+        <v>417</v>
+      </c>
+      <c r="D92" t="s">
+        <v>418</v>
+      </c>
+      <c r="E92" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>421</v>
+      </c>
+      <c r="D93" t="s">
+        <v>422</v>
+      </c>
+      <c r="E93" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" t="s">
+        <v>426</v>
+      </c>
+      <c r="E94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" t="s">
+        <v>429</v>
+      </c>
+      <c r="D95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C96" t="s">
+        <v>433</v>
+      </c>
+      <c r="D96" t="s">
+        <v>434</v>
+      </c>
+      <c r="E96" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>436</v>
+      </c>
+      <c r="C97" t="s">
+        <v>437</v>
+      </c>
+      <c r="D97" t="s">
+        <v>438</v>
+      </c>
+      <c r="E97" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>440</v>
+      </c>
+      <c r="C98" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" t="s">
+        <v>442</v>
+      </c>
+      <c r="E98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>444</v>
+      </c>
+      <c r="C99" t="s">
+        <v>445</v>
+      </c>
+      <c r="D99" t="s">
+        <v>446</v>
+      </c>
+      <c r="E99" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" t="s">
+        <v>449</v>
+      </c>
+      <c r="D100" t="s">
+        <v>450</v>
+      </c>
+      <c r="E100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" t="s">
+        <v>453</v>
+      </c>
+      <c r="D101" t="s">
+        <v>454</v>
+      </c>
+      <c r="E101" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>456</v>
+      </c>
+      <c r="C102" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" t="s">
+        <v>458</v>
+      </c>
+      <c r="E102" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>460</v>
+      </c>
+      <c r="C103" t="s">
+        <v>461</v>
+      </c>
+      <c r="D103" t="s">
+        <v>462</v>
+      </c>
+      <c r="E103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>464</v>
+      </c>
+      <c r="C104" t="s">
+        <v>465</v>
+      </c>
+      <c r="D104" t="s">
+        <v>466</v>
+      </c>
+      <c r="E104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" t="s">
+        <v>470</v>
+      </c>
+      <c r="E105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>472</v>
+      </c>
+      <c r="C106" t="s">
+        <v>473</v>
+      </c>
+      <c r="D106" t="s">
+        <v>474</v>
+      </c>
+      <c r="E106" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>476</v>
+      </c>
+      <c r="C107" t="s">
+        <v>477</v>
+      </c>
+      <c r="D107" t="s">
+        <v>478</v>
+      </c>
+      <c r="E107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>480</v>
+      </c>
+      <c r="C108" t="s">
+        <v>481</v>
+      </c>
+      <c r="D108" t="s">
+        <v>482</v>
+      </c>
+      <c r="E108" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>484</v>
+      </c>
+      <c r="C109" t="s">
+        <v>485</v>
+      </c>
+      <c r="D109" t="s">
+        <v>486</v>
+      </c>
+      <c r="E109" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>488</v>
+      </c>
+      <c r="C110" t="s">
+        <v>489</v>
+      </c>
+      <c r="D110" t="s">
+        <v>490</v>
+      </c>
+      <c r="E110" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>492</v>
+      </c>
+      <c r="C111" t="s">
+        <v>493</v>
+      </c>
+      <c r="D111" t="s">
+        <v>494</v>
+      </c>
+      <c r="E111" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>496</v>
+      </c>
+      <c r="C112" t="s">
+        <v>497</v>
+      </c>
+      <c r="D112" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>500</v>
+      </c>
+      <c r="C113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D113" t="s">
+        <v>502</v>
+      </c>
+      <c r="E113" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C114" t="s">
+        <v>505</v>
+      </c>
+      <c r="D114" t="s">
+        <v>506</v>
+      </c>
+      <c r="E114" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>508</v>
+      </c>
+      <c r="C115" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" t="s">
+        <v>510</v>
+      </c>
+      <c r="E115" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" t="s">
+        <v>514</v>
+      </c>
+      <c r="E116" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D117" t="s">
+        <v>518</v>
+      </c>
+      <c r="E117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>520</v>
+      </c>
+      <c r="C118" t="s">
+        <v>521</v>
+      </c>
+      <c r="D118" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" t="s">
+        <v>525</v>
+      </c>
+      <c r="D119" t="s">
+        <v>526</v>
+      </c>
+      <c r="E119" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>528</v>
+      </c>
+      <c r="C120" t="s">
+        <v>529</v>
+      </c>
+      <c r="D120" t="s">
+        <v>530</v>
+      </c>
+      <c r="E120" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>532</v>
+      </c>
+      <c r="C121" t="s">
+        <v>533</v>
+      </c>
+      <c r="D121" t="s">
+        <v>534</v>
+      </c>
+      <c r="E121" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>536</v>
+      </c>
+      <c r="C122" t="s">
+        <v>537</v>
+      </c>
+      <c r="D122" t="s">
+        <v>538</v>
+      </c>
+      <c r="E122" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>540</v>
+      </c>
+      <c r="C123" t="s">
+        <v>541</v>
+      </c>
+      <c r="D123" t="s">
+        <v>542</v>
+      </c>
+      <c r="E123" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>544</v>
+      </c>
+      <c r="C124" t="s">
+        <v>545</v>
+      </c>
+      <c r="D124" t="s">
+        <v>546</v>
+      </c>
+      <c r="E124" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>548</v>
+      </c>
+      <c r="C125" t="s">
+        <v>549</v>
+      </c>
+      <c r="D125" t="s">
+        <v>550</v>
+      </c>
+      <c r="E125" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>552</v>
+      </c>
+      <c r="C126" t="s">
+        <v>553</v>
+      </c>
+      <c r="D126" t="s">
+        <v>554</v>
+      </c>
+      <c r="E126" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>556</v>
+      </c>
+      <c r="C127" t="s">
+        <v>557</v>
+      </c>
+      <c r="D127" t="s">
+        <v>558</v>
+      </c>
+      <c r="E127" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>560</v>
+      </c>
+      <c r="C128" t="s">
+        <v>561</v>
+      </c>
+      <c r="D128" t="s">
+        <v>562</v>
+      </c>
+      <c r="E128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>564</v>
+      </c>
+      <c r="C129" t="s">
+        <v>565</v>
+      </c>
+      <c r="D129" t="s">
+        <v>566</v>
+      </c>
+      <c r="E129" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>568</v>
+      </c>
+      <c r="C130" t="s">
+        <v>569</v>
+      </c>
+      <c r="D130" t="s">
+        <v>570</v>
+      </c>
+      <c r="E130" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>572</v>
+      </c>
+      <c r="C131" t="s">
+        <v>573</v>
+      </c>
+      <c r="D131" t="s">
+        <v>574</v>
+      </c>
+      <c r="E131" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>576</v>
+      </c>
+      <c r="C132" t="s">
+        <v>577</v>
+      </c>
+      <c r="D132" t="s">
+        <v>578</v>
+      </c>
+      <c r="E132" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>580</v>
+      </c>
+      <c r="C133" t="s">
+        <v>581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>582</v>
+      </c>
+      <c r="E133" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>584</v>
+      </c>
+      <c r="C134" t="s">
+        <v>585</v>
+      </c>
+      <c r="D134" t="s">
+        <v>586</v>
+      </c>
+      <c r="E134" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>588</v>
+      </c>
+      <c r="C135" t="s">
+        <v>589</v>
+      </c>
+      <c r="D135" t="s">
+        <v>590</v>
+      </c>
+      <c r="E135" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>592</v>
+      </c>
+      <c r="C136" t="s">
+        <v>593</v>
+      </c>
+      <c r="D136" t="s">
+        <v>594</v>
+      </c>
+      <c r="E136" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>596</v>
+      </c>
+      <c r="C137" t="s">
+        <v>597</v>
+      </c>
+      <c r="D137" t="s">
+        <v>598</v>
+      </c>
+      <c r="E137" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>600</v>
+      </c>
+      <c r="C138" t="s">
+        <v>601</v>
+      </c>
+      <c r="D138" t="s">
+        <v>602</v>
+      </c>
+      <c r="E138" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>604</v>
+      </c>
+      <c r="C139" t="s">
+        <v>605</v>
+      </c>
+      <c r="D139" t="s">
+        <v>606</v>
+      </c>
+      <c r="E139" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>608</v>
+      </c>
+      <c r="C140" t="s">
+        <v>609</v>
+      </c>
+      <c r="D140" t="s">
+        <v>610</v>
+      </c>
+      <c r="E140" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>612</v>
+      </c>
+      <c r="C141" t="s">
+        <v>613</v>
+      </c>
+      <c r="D141" t="s">
+        <v>614</v>
+      </c>
+      <c r="E141" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>616</v>
+      </c>
+      <c r="C142" t="s">
+        <v>617</v>
+      </c>
+      <c r="D142" t="s">
+        <v>618</v>
+      </c>
+      <c r="E142" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>620</v>
+      </c>
+      <c r="C143" t="s">
+        <v>621</v>
+      </c>
+      <c r="D143" t="s">
+        <v>622</v>
+      </c>
+      <c r="E143" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>624</v>
+      </c>
+      <c r="C144" t="s">
+        <v>625</v>
+      </c>
+      <c r="D144" t="s">
+        <v>626</v>
+      </c>
+      <c r="E144" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>628</v>
+      </c>
+      <c r="C145" t="s">
+        <v>629</v>
+      </c>
+      <c r="D145" t="s">
+        <v>630</v>
+      </c>
+      <c r="E145" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -1757,7 +5135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,16 +5145,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>633</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>634</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1784,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>636</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>637</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>638</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1801,16 +5179,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>640</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>641</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>642</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1818,16 +5196,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>644</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>646</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1835,16 +5213,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>648</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>649</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>650</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1852,16 +5230,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>652</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>653</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>654</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1869,16 +5247,118 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>656</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>657</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>658</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" t="s">
+        <v>661</v>
+      </c>
+      <c r="D8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C11" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C13" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" t="s">
+        <v>682</v>
+      </c>
+      <c r="E13" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/Tesis/Resultados/Escalon/CS/ACOSTADO_Derecho_layer_0.xlsx
+++ b/Tesis/Resultados/Escalon/CS/ACOSTADO_Derecho_layer_0.xlsx
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,22 +396,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.4867875874042511]</t>
+          <t>[-0.2008747011423111]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.22978676855564117]</t>
+          <t>[0.09161944687366486]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.050087954849004745]</t>
+          <t>[-0.3295067846775055]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.21741852164268494]</t>
+          <t>[0.39596089720726013]</t>
         </is>
       </c>
     </row>
@@ -421,22 +421,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.21513304114341736]</t>
+          <t>[-0.3492366075515747]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.15137813985347748]</t>
+          <t>[-0.08109106123447418]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.49345463514328003]</t>
+          <t>[0.4243054687976837]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.19396628439426422]</t>
+          <t>[0.11571800708770752]</t>
         </is>
       </c>
     </row>
@@ -446,22 +446,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.5113071799278259]</t>
+          <t>[0.5112230777740479]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.5747664570808411]</t>
+          <t>[0.34960806369781494]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-0.30248403549194336]</t>
+          <t>[0.4754694998264313]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.09845219552516937]</t>
+          <t>[0.32098299264907837]</t>
         </is>
       </c>
     </row>
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-0.18111829459667206]</t>
+          <t>[0.31967729330062866]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.13361665606498718]</t>
+          <t>[0.38923028111457825]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.009351711720228195]</t>
+          <t>[-0.0882224515080452]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.35297197103500366]</t>
+          <t>[-0.20264029502868652]</t>
         </is>
       </c>
     </row>
@@ -496,22 +496,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.35846689343452454]</t>
+          <t>[0.3733745515346527]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.228396475315094]</t>
+          <t>[0.1783282607793808]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.5145259499549866]</t>
+          <t>[0.30038851499557495]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.34948647022247314]</t>
+          <t>[-0.10882439464330673]</t>
         </is>
       </c>
     </row>
@@ -521,22 +521,222 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-0.6823656558990479]</t>
+          <t>[0.5068077445030212]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.40227648615837097]</t>
+          <t>[0.047806642949581146]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-0.6022351384162903]</t>
+          <t>[0.2720578610897064]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.5892577767372131]</t>
+          <t>[0.32246270775794983]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[0.3264341950416565]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.0661645457148552]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.1219005286693573]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[0.3542875349521637]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[-0.2126106321811676]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[0.39739421010017395]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.22151833772659302]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[-0.0810374841094017]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[-0.437841534614563]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[0.053856149315834045]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.2613541781902313]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[-0.23734444379806519]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[0.31424981355667114]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[0.04431562498211861]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.36852872371673584]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.45013394951820374]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[-0.3359670042991638]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-0.18792542815208435]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[0.2009761929512024]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[-0.27681148052215576]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[-0.1489218920469284]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[0.26139572262763977]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[0.22980214655399323]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[-0.2421209216117859]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[0.2805822193622589]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-0.03752646595239639]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[-0.28105589747428894]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.1800871342420578]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[0.2602595388889313]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[0.3291935920715332]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[-0.2688637375831604]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[-0.2152506560087204]</t>
         </is>
       </c>
     </row>
@@ -551,7 +751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,22 +787,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-0.5112912654876709]</t>
+          <t>[-0.17613628506660461]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.0733296275138855]</t>
+          <t>[-0.1974422037601471]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-0.029293805360794067]</t>
+          <t>[-0.18735845386981964]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.0500316321849823]</t>
+          <t>[0.07405468076467514]</t>
         </is>
       </c>
     </row>
@@ -612,22 +812,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.025853119790554047]</t>
+          <t>[-0.10679128021001816]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.38432180881500244]</t>
+          <t>[0.10110154747962952]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.07386580109596252]</t>
+          <t>[0.16725662350654602]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.18321774899959564]</t>
+          <t>[-0.20403526723384857]</t>
         </is>
       </c>
     </row>
@@ -637,22 +837,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.11283378303050995]</t>
+          <t>[-0.02613878808915615]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.21392133831977844]</t>
+          <t>[0.17700576782226562]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-0.16063933074474335]</t>
+          <t>[0.0015859354753047228]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.21088659763336182]</t>
+          <t>[-0.1313016414642334]</t>
         </is>
       </c>
     </row>
@@ -662,22 +862,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.08297528326511383]</t>
+          <t>[0.1997092068195343]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.3906453549861908]</t>
+          <t>[0.1517985463142395]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[-0.03815045580267906]</t>
+          <t>[0.11407527327537537]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.11956887692213058]</t>
+          <t>[0.0011556161334738135]</t>
         </is>
       </c>
     </row>
@@ -687,22 +887,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.0684974193572998]</t>
+          <t>[0.07059989869594574]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.21751192212104797]</t>
+          <t>[0.11752954870462418]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-0.4049582779407501]</t>
+          <t>[0.014602843672037125]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.10767108201980591]</t>
+          <t>[0.06178652495145798]</t>
         </is>
       </c>
     </row>
@@ -712,22 +912,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0.20618528127670288]</t>
+          <t>[0.17731903493404388]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0.14557231962680817]</t>
+          <t>[-0.07558141648769379]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.0682951956987381]</t>
+          <t>[0.1810123473405838]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.34816938638687134]</t>
+          <t>[0.04579981043934822]</t>
         </is>
       </c>
     </row>
@@ -737,22 +937,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-0.0799531415104866]</t>
+          <t>[0.290669709444046]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.05995694175362587]</t>
+          <t>[0.008326243609189987]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.0021054421085864305]</t>
+          <t>[0.031100323423743248]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.05491144582629204]</t>
+          <t>[0.12216777354478836]</t>
         </is>
       </c>
     </row>
@@ -762,22 +962,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-0.26138195395469666]</t>
+          <t>[-0.054287251085042953]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.3723914623260498]</t>
+          <t>[0.2636975347995758]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.012323721311986446]</t>
+          <t>[0.011007444001734257]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-0.02676112949848175]</t>
+          <t>[-0.11363628506660461]</t>
         </is>
       </c>
     </row>
@@ -787,22 +987,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[0.25215914845466614]</t>
+          <t>[0.177619069814682]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.41473767161369324]</t>
+          <t>[0.11714912205934525]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.17208129167556763]</t>
+          <t>[0.13896356523036957]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-0.10658831149339676]</t>
+          <t>[-0.08581314235925674]</t>
         </is>
       </c>
     </row>
@@ -812,22 +1012,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-0.23765096068382263]</t>
+          <t>[-0.06780874729156494]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.047791872173547745]</t>
+          <t>[-0.2903299033641815]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[-0.13160458207130432]</t>
+          <t>[0.20744717121124268]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.36170080304145813]</t>
+          <t>[-0.12197089195251465]</t>
         </is>
       </c>
     </row>
@@ -837,22 +1037,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[0.2234194278717041]</t>
+          <t>[0.020165177062153816]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[0.05756745487451553]</t>
+          <t>[-0.03933563455939293]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.31873273849487305]</t>
+          <t>[0.19795505702495575]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.10667869448661804]</t>
+          <t>[-0.24135029315948486]</t>
         </is>
       </c>
     </row>
@@ -862,22 +1062,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[-0.13907289505004883]</t>
+          <t>[-0.1464558094739914]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[0.41969454288482666]</t>
+          <t>[0.09074145555496216]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[-0.16392700374126434]</t>
+          <t>[-0.29235631227493286]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.10738001763820648]</t>
+          <t>[-0.2229555994272232]</t>
         </is>
       </c>
     </row>
@@ -887,22 +1087,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[-0.19515112042427063]</t>
+          <t>[0.18500901758670807]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-0.11383920162916183]</t>
+          <t>[-0.005015743896365166]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[-0.21828794479370117]</t>
+          <t>[0.15907612442970276]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.18472778797149658]</t>
+          <t>[-0.07715853303670883]</t>
         </is>
       </c>
     </row>
@@ -912,22 +1112,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[0.1248534694314003]</t>
+          <t>[-0.03579601272940636]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-0.021822210401296616]</t>
+          <t>[0.14551569521427155]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[-0.3461923599243164]</t>
+          <t>[-0.21296308934688568]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-0.011839278973639011]</t>
+          <t>[0.013396275229752064]</t>
         </is>
       </c>
     </row>
@@ -937,22 +1137,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[-0.04571191221475601]</t>
+          <t>[0.18393398821353912]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[-0.07737252861261368]</t>
+          <t>[-0.015887446701526642]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.21765409409999847]</t>
+          <t>[0.23572273552417755]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.32280683517456055]</t>
+          <t>[0.13825175166130066]</t>
         </is>
       </c>
     </row>
@@ -962,22 +1162,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[0.018470166251063347]</t>
+          <t>[-0.16068170964717865]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[-0.35617515444755554]</t>
+          <t>[-0.07044083625078201]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[-0.26720377802848816]</t>
+          <t>[-0.16376547515392303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.02815626934170723]</t>
+          <t>[0.03030284121632576]</t>
         </is>
       </c>
     </row>
@@ -987,22 +1187,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[-0.258989542722702]</t>
+          <t>[-0.27546191215515137]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[0.19499555230140686]</t>
+          <t>[-0.008665045723319054]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[-0.18642768263816833]</t>
+          <t>[-0.24951864778995514]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.006753604393452406]</t>
+          <t>[-0.11984381824731827]</t>
         </is>
       </c>
     </row>
@@ -1012,22 +1212,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[0.2796012759208679]</t>
+          <t>[-0.008780945092439651]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[-0.6894002556800842]</t>
+          <t>[-0.16438977420330048]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.15557517111301422]</t>
+          <t>[0.19002623856067657]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.16175128519535065]</t>
+          <t>[-0.5439642071723938]</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1237,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[0.32262900471687317]</t>
+          <t>[-0.2095414698123932]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0.25071194767951965]</t>
+          <t>[0.11458808183670044]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.17792797088623047]</t>
+          <t>[-0.16839943826198578]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-0.13562114536762238]</t>
+          <t>[0.016545914113521576]</t>
         </is>
       </c>
     </row>
@@ -1062,22 +1262,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[0.06909851729869843]</t>
+          <t>[-0.15789540112018585]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0.1640097051858902]</t>
+          <t>[0.012739742174744606]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.058969900012016296]</t>
+          <t>[0.00858188048005104]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.009399926289916039]</t>
+          <t>[0.00445951521396637]</t>
         </is>
       </c>
     </row>
@@ -1087,22 +1287,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[0.3185954988002777]</t>
+          <t>[0.0027265166863799095]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[0.13553455471992493]</t>
+          <t>[0.24618397653102875]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[-0.28599458932876587]</t>
+          <t>[-0.13013595342636108]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[-0.14786162972450256]</t>
+          <t>[0.2825270891189575]</t>
         </is>
       </c>
     </row>
@@ -1112,22 +1312,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[0.2539263367652893]</t>
+          <t>[0.18775153160095215]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0.11949698626995087]</t>
+          <t>[-0.15446563065052032]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[-0.131781667470932]</t>
+          <t>[0.15764302015304565]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.2884938418865204]</t>
+          <t>[-0.046317681670188904]</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1337,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[0.2952945828437805]</t>
+          <t>[-0.012572206556797028]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[0.40419521927833557]</t>
+          <t>[-0.034251805394887924]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.5563235282897949]</t>
+          <t>[-0.3710980713367462]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.07293599098920822]</t>
+          <t>[0.05361827835440636]</t>
         </is>
       </c>
     </row>
@@ -1162,22 +1362,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[-0.34802815318107605]</t>
+          <t>[-0.14998988807201385]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[0.07077990472316742]</t>
+          <t>[0.10809353739023209]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[-0.3269340693950653]</t>
+          <t>[-0.26560238003730774]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.15898524224758148]</t>
+          <t>[-0.13299460709095]</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1387,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[0.149338498711586]</t>
+          <t>[0.14488278329372406]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[0.20056098699569702]</t>
+          <t>[0.03893569856882095]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[-0.30930012464523315]</t>
+          <t>[-0.2804815471172333]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.028031200170516968]</t>
+          <t>[0.06614182889461517]</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1412,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[-0.05858305096626282]</t>
+          <t>[-0.06936593353748322]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0.09252149611711502]</t>
+          <t>[-0.2749027907848358]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.24099066853523254]</t>
+          <t>[0.13131210207939148]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.2967016398906708]</t>
+          <t>[0.38234037160873413]</t>
         </is>
       </c>
     </row>
@@ -1237,22 +1437,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[0.13868220150470734]</t>
+          <t>[-0.05996738374233246]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[-0.14829003810882568]</t>
+          <t>[-0.10365314036607742]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.04241945222020149]</t>
+          <t>[0.15245312452316284]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[-0.0348871611058712]</t>
+          <t>[-0.1711638867855072]</t>
         </is>
       </c>
     </row>
@@ -1262,22 +1462,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[-0.025020867586135864]</t>
+          <t>[-0.21040189266204834]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[0.1004231795668602]</t>
+          <t>[-0.03825065493583679]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.5762600898742676]</t>
+          <t>[0.18413010239601135]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[-0.08819633722305298]</t>
+          <t>[-0.08437459915876389]</t>
         </is>
       </c>
     </row>
@@ -1287,22 +1487,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[0.3812481760978699]</t>
+          <t>[-0.0488273911178112]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[0.3687226176261902]</t>
+          <t>[-0.05863572284579277]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.4024439752101898]</t>
+          <t>[0.0777902901172638]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[-0.2370002567768097]</t>
+          <t>[0.12253841757774353]</t>
         </is>
       </c>
     </row>
@@ -1312,22 +1512,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>[-0.07359137386083603]</t>
+          <t>[-0.02608482725918293]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[-0.11282698065042496]</t>
+          <t>[-0.13839085400104523]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[-0.24151434004306793]</t>
+          <t>[0.18043598532676697]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[-0.027471691370010376]</t>
+          <t>[-0.016435882076621056]</t>
         </is>
       </c>
     </row>
@@ -1337,22 +1537,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[-0.02378629893064499]</t>
+          <t>[-0.12020841985940933]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[-0.15573404729366302]</t>
+          <t>[0.12305227667093277]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[-0.3242145776748657]</t>
+          <t>[0.04686885327100754]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.10146249830722809]</t>
+          <t>[0.1300894170999527]</t>
         </is>
       </c>
     </row>
@@ -1362,22 +1562,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[-0.08844588696956635]</t>
+          <t>[0.11418119072914124]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[0.043866418302059174]</t>
+          <t>[0.1471201479434967]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[-0.41217726469039917]</t>
+          <t>[0.058020152151584625]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[-0.12987658381462097]</t>
+          <t>[0.19994108378887177]</t>
         </is>
       </c>
     </row>
@@ -1387,22 +1587,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[-0.07792899012565613]</t>
+          <t>[-0.004922914784401655]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[0.37399113178253174]</t>
+          <t>[-0.0047744945622980595]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.6376457214355469]</t>
+          <t>[-0.3156032860279083]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.14384612441062927]</t>
+          <t>[-0.2580902576446533]</t>
         </is>
       </c>
     </row>
@@ -1412,22 +1612,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>[0.19098806381225586]</t>
+          <t>[0.09520754963159561]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[0.10898560285568237]</t>
+          <t>[0.03789536654949188]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[-0.044857144355773926]</t>
+          <t>[0.001905866782180965]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[-0.33003053069114685]</t>
+          <t>[0.030581848695874214]</t>
         </is>
       </c>
     </row>
@@ -1437,22 +1637,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>[-0.2685824930667877]</t>
+          <t>[0.03092450462281704]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[0.012944093905389309]</t>
+          <t>[0.09740696847438812]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[-0.05378058925271034]</t>
+          <t>[0.02915087528526783]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.11489459127187729]</t>
+          <t>[-0.1157841607928276]</t>
         </is>
       </c>
     </row>
@@ -1462,22 +1662,4022 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[0.4673284888267517]</t>
+          <t>[-0.05978313460946083]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[0.1227925643324852]</t>
+          <t>[0.03862122818827629]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.174748957157135]</t>
+          <t>[0.11009005457162857]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.20256800949573517]</t>
+          <t>[-0.2750633955001831]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[-0.08499933779239655]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[-0.13252957165241241]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[0.01172614935785532]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[-0.21070456504821777]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[-0.014731134288012981]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[-0.028061898425221443]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[0.1670992374420166]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[0.25891149044036865]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[-0.05897711589932442]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[-0.03490646928548813]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[0.1179116889834404]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[0.34959515929222107]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[-0.020721912384033203]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[0.04806768521666527]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[-0.09444022178649902]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[-0.12127374857664108]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[0.12070471793413162]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[-0.04731067270040512]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[-0.2659257650375366]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[0.10991092026233673]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[0.1444164663553238]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[0.21341875195503235]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[0.0728532150387764]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[-0.15237292647361755]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[0.17333492636680603]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[0.1648532599210739]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[-0.0015292712487280369]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[0.1249343678355217]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[-0.03412800654768944]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[0.05614759773015976]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[-0.009802409447729588]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[0.31950071454048157]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[0.07163216918706894]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[0.005797825288027525]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0.2850351631641388]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[0.2828899919986725]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[-0.3686832785606384]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[-0.30178770422935486]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[0.16199971735477448]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[-0.28111547231674194]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[-0.20065701007843018]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[0.023821644484996796]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[-0.012369794771075249]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[-0.26402443647384644]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[0.126817524433136]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[-0.06715980172157288]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[0.18601582944393158]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[0.018401185050606728]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[0.0686059519648552]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[-0.1257999986410141]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[0.08612526953220367]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[0.2493794709444046]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[0.2896236479282379]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[-0.2965613305568695]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[0.05274823307991028]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[-0.31596839427948]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[0.08102670311927795]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[0.16778385639190674]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[0.1698843538761139]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[-0.4014129936695099]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[0.21576417982578278]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[-0.01120152696967125]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[0.18501096963882446]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[0.24656258523464203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[-0.048841722309589386]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[-0.2534763514995575]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[0.13833259046077728]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[-0.17364059388637543]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[-0.047096360474824905]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[-0.10809046775102615]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[-0.1595962792634964]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[-0.051419928669929504]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[-0.2193984091281891]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[-0.06508984416723251]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[0.02820752188563347]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[-0.12452226132154465]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[-0.15078416466712952]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[0.1633392870426178]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[0.05045536160469055]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[-0.16313901543617249]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[-0.05212032422423363]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[0.13769488036632538]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[-0.2050037533044815]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[-0.15729692578315735]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[-0.08478338271379471]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[0.2196207195520401]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[-0.02384263090789318]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[0.08435361832380295]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[-0.2886224687099457]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[-0.09902767837047577]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[-0.029378332197666168]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[0.08674830198287964]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[0.03838286176323891]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[-0.12022024393081665]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[0.01794198341667652]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[-0.023971980437636375]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[-0.21826298534870148]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[-0.19499842822551727]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[0.12280147522687912]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[0.029347965493798256]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[-0.085120789706707]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[0.16300633549690247]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[0.09830822795629501]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[0.08930156379938126]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[-0.1259240359067917]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[0.14171893894672394]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[-0.024927835911512375]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[0.060330234467983246]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[0.35398632287979126]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[0.08150747418403625]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[0.19030441343784332]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[-0.07870712876319885]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[0.09761963784694672]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[0.054646678268909454]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[0.07059907913208008]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[-0.09788869321346283]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[-0.18340113759040833]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[-0.10490664094686508]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[-0.12777277827262878]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[0.07643929868936539]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[0.2595978081226349]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[0.04144439473748207]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[-0.05851220712065697]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[0.04409366473555565]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[0.0264964010566473]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[-0.3947349190711975]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[0.24212361872196198]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[-0.02047804743051529]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[-0.008748924359679222]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[0.099496029317379]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[-0.18724071979522705]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[-0.03297066316008568]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[-0.18356001377105713]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[0.15136946737766266]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[0.15616214275360107]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[0.028911080211400986]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[0.1747765988111496]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[-0.11316677182912827]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[-0.1408584862947464]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[0.015705768018960953]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[-0.07178476452827454]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[0.012761479243636131]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[0.006660750601440668]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[-0.024926144629716873]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[0.12345502525568008]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[-0.002240175846964121]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[-0.03537985309958458]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[-0.06067155674099922]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[0.5130149126052856]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[0.17249538004398346]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[-0.21428310871124268]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[0.41756704449653625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[0.07067455351352692]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[0.17763182520866394]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[0.21777011454105377]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[-0.014674274250864983]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[0.1767478585243225]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[0.1093832403421402]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[-0.11403798311948776]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[-0.16600462794303894]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[0.31300702691078186]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[-0.05304332450032234]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[-0.019697997719049454]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[0.007728300988674164]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[0.06903751939535141]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[0.2981807291507721]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[-0.10776033997535706]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[-0.10156919062137604]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[-0.1043165922164917]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[0.015620226971805096]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[-0.06633423268795013]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[-0.33590492606163025]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[0.06337277591228485]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[0.18344488739967346]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[0.1061026006937027]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[0.08303578943014145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[-0.25699684023857117]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[0.002137101488187909]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[0.05302771180868149]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[-0.11818260699510574]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[-0.15039728581905365]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[-0.11053759604692459]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[0.061969172209501266]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[0.008587798103690147]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[-0.07989402115345001]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[-0.05116825923323631]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[0.06417284160852432]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[0.09705303609371185]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[0.17077332735061646]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[-0.018080398440361023]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[-0.09308908879756927]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[0.24804353713989258]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[-0.22118327021598816]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[-0.10830401629209518]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[-0.10027286410331726]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[0.053377360105514526]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[-0.2998105585575104]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[0.06242820620536804]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[0.06642477214336395]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[-0.0019748106133192778]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[0.030089206993579865]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[0.11248743534088135]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[0.06887321919202805]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[0.15133336186408997]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[-0.22512611746788025]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[-0.16741733253002167]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[-0.04831819236278534]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[-0.18735532462596893]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[0.0625648945569992]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[0.09940420091152191]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[0.1696268618106842]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[-0.15120446681976318]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[0.051073670387268066]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[0.15505088865756989]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[0.05964086204767227]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[0.3909966051578522]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[0.13862787187099457]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[0.057385146617889404]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[0.16753385961055756]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[-0.17185620963573456]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[0.033365555107593536]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[-0.054199784994125366]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[-0.266235888004303]</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[-0.3430113196372986]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[-0.1838047355413437]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[0.032509028911590576]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[0.06742633134126663]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[-0.13564863801002502]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[0.3827914893627167]</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[0.22658713161945343]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[-0.011998605914413929]</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[-0.059568244963884354]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[-0.25619903206825256]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[-0.0629524439573288]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[0.28827089071273804]</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[0.009808039292693138]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[0.11670380085706711]</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[-0.20672257244586945]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[-0.26504454016685486]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[-0.10117444396018982]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[0.09019498527050018]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[-0.1219567060470581]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[0.1283230036497116]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[-0.289798378944397]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[0.16119062900543213]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[0.10962817072868347]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[0.03113403357565403]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[0.13845087587833405]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[0.10172693431377411]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[0.10031117498874664]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[0.016689317300915718]</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[-0.11465436965227127]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[0.1525808572769165]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[-0.20682311058044434]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[-0.22734777629375458]</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[-0.20020495355129242]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[-0.08057375997304916]</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[0.18148629367351532]</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[-0.02438928373157978]</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[-0.08433318138122559]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[-0.0727136954665184]</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[0.10951784253120422]</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[-0.05374562367796898]</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[0.19253084063529968]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[-0.03743896260857582]</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[0.16558738052845]</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[-0.17883436381816864]</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[0.11298447102308273]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[-0.13537894189357758]</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[0.12205281853675842]</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[0.0380544550716877]</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[-0.029151443392038345]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[0.008041639812290668]</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[-0.04394829273223877]</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[0.2401115894317627]</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[0.08139138668775558]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[0.23776566982269287]</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[0.2244468778371811]</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[-0.07133596390485764]</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[0.17453643679618835]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[0.07653036713600159]</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[0.18615061044692993]</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[-0.02377743273973465]</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[0.26165562868118286]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[-0.16886281967163086]</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[0.1820564568042755]</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[-0.11055346578359604]</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[0.053573619574308395]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[-0.1634671688079834]</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[0.16694985330104828]</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[-0.12741509079933167]</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[0.05779213085770607]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[0.09962927550077438]</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[-0.0004987572319805622]</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[0.13472464680671692]</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[-0.010509434156119823]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[-0.14028425514698029]</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[0.04927339777350426]</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[0.26828959584236145]</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[0.1227080225944519]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[-0.18442681431770325]</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[0.35539010167121887]</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[0.05461208522319794]</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[0.09027082473039627]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[-0.03798293694853783]</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[-0.2369476854801178]</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[-0.06832601130008698]</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[0.34578248858451843]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[0.06482156366109848]</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[0.22044189274311066]</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[0.01996663212776184]</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[0.06700257956981659]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[0.2528628706932068]</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[0.048470012843608856]</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[0.009783842600882053]</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[-0.02115408144891262]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[-0.07743650674819946]</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[-0.002138284035027027]</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[-0.40960270166397095]</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[0.00953141413629055]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[0.020560074597597122]</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[0.04915255680680275]</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[0.07193823903799057]</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[0.06365712732076645]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[0.2004215568304062]</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[0.15284831821918488]</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[-0.023243727162480354]</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[-0.056719087064266205]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[0.25350943207740784]</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[0.03214659541845322]</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[0.17403239011764526]</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[0.14120040833950043]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[-0.22122016549110413]</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[0.1602868288755417]</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[-0.056431423872709274]</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[0.023080822080373764]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[0.1541224867105484]</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[0.05647049471735954]</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[0.003915892913937569]</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[-0.2330188900232315]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[-0.008441018871963024]</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[0.11094289273023605]</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[0.03253748640418053]</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[0.04029877856373787]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[-0.09142649918794632]</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[-0.1272210329771042]</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[0.13734109699726105]</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[0.10431436449289322]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[-0.09048066288232803]</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[0.24898052215576172]</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[0.26026374101638794]</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[-0.31707796454429626]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[0.33131060004234314]</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[-0.2306671142578125]</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[-0.16979563236236572]</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[0.2022816389799118]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[-0.01025217305868864]</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[0.11808222532272339]</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[-0.05197954922914505]</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[-0.06846783310174942]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[-0.012384898029267788]</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[-0.02438218891620636]</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[0.01775326021015644]</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[0.01759517751634121]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[0.22168505191802979]</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[0.1383102983236313]</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[-0.2154511958360672]</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[-0.026046082377433777]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[-0.11177246272563934]</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[-0.0158024113625288]</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[0.2546509802341461]</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[-0.12424980849027634]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[0.17397701740264893]</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[0.050741832703351974]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[0.04908163100481033]</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[0.113445945084095]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[0.09080273658037186]</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[-0.045019883662462234]</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[0.055621080100536346]</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[-0.12826471030712128]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[0.25865301489830017]</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[-0.0031940138433128595]</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[0.22666192054748535]</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[0.11589524894952774]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[0.1891547292470932]</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[0.2221774160861969]</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[0.0542101226747036]</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[-0.15731041133403778]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[-0.22937828302383423]</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[0.2567216157913208]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[-0.08420027047395706]</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[0.25972646474838257]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[0.15203368663787842]</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[-0.15599320828914642]</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[-0.06132301688194275]</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[0.0067162723280489445]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[-0.03911712393164635]</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[0.18843868374824524]</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[0.11638375371694565]</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[-0.13907499611377716]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[-0.12275659292936325]</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[-0.23759309947490692]</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[0.1301203817129135]</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[-0.2086089700460434]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[0.04441898688673973]</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>[0.11037304997444153]</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[0.14767512679100037]</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[-0.26444244384765625]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[-0.06180810183286667]</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[0.0947757214307785]</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[-0.03816967457532883]</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[0.01373893953859806]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[0.3889015316963196]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[0.05443064868450165]</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[0.09599409252405167]</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[0.10829964280128479]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[-0.09612162411212921]</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[-0.0565803200006485]</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[-0.2605634033679962]</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[0.25600430369377136]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[-0.22840365767478943]</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[-0.3623785972595215]</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[-0.015435370616614819]</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[-0.0274821650236845]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[0.22011002898216248]</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[-0.11500965058803558]</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[0.13635118305683136]</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[0.10649620741605759]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[0.1796043962240219]</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[0.39446961879730225]</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[-0.055479902774095535]</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[-0.1420985907316208]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[0.018650414422154427]</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[-0.10935045778751373]</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[0.05131267011165619]</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[0.051139842718839645]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[0.1650530844926834]</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[-0.028705371543765068]</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[-0.08919103443622589]</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[0.16280235350131989]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[0.10483714938163757]</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[-0.027572477236390114]</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[0.22353945672512054]</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[-0.1019710972905159]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[-0.026142340153455734]</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[0.13399897515773773]</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[-0.13329599797725677]</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[0.09190306067466736]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[-0.13422825932502747]</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[0.022787876427173615]</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[0.020339658483862877]</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[0.06503783166408539]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[-0.27366435527801514]</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[0.07778956741094589]</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[0.25168898701667786]</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[0.029437819495797157]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>[0.09964160621166229]</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[0.040060315281152725]</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[0.24852456152439117]</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[-0.0711212158203125]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>[-0.22707951068878174]</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[0.09892595559358597]</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[0.13409395515918732]</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[-0.25586235523223877]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>[-0.14208905398845673]</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[-0.07310605049133301]</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[0.032676756381988525]</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[0.1757752001285553]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>[0.1375913918018341]</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[0.04360470175743103]</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[0.006061112973839045]</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[0.1443144530057907]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[-0.12735573947429657]</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[0.23662085831165314]</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[0.06705678254365921]</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[0.0012999253813177347]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>[-0.05778712034225464]</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>[-0.023994136601686478]</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[0.1496785432100296]</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[0.10547823458909988]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>[-0.10783412307500839]</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>[-0.10823754221200943]</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[0.08196932077407837]</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[-0.08227772265672684]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>[-0.023297786712646484]</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>[0.28917208313941956]</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[-0.34594282507896423]</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[0.15981754660606384]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[-0.10263105481863022]</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>[0.13958308100700378]</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[-0.10169509798288345]</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[0.37831902503967285]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>[0.21842636168003082]</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>[-0.13463756442070007]</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[-0.15994639694690704]</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[-0.08214301615953445]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>[0.12362092733383179]</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>[-0.02225145697593689]</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[0.019066983833909035]</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[-0.13058173656463623]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>[0.0378851443529129]</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>[0.1702757179737091]</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[-0.20448216795921326]</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[0.39353278279304504]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[-0.028167562559247017]</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[0.08290968835353851]</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[0.14535576105117798]</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[-0.12294798344373703]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>[0.14983242750167847]</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>[-0.07256824523210526]</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[0.04013972729444504]</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[-0.0069619277492165565]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>[0.1226906105875969]</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>[-0.11811726540327072]</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[0.08774276077747345]</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[-0.041715286672115326]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>[-0.06337258219718933]</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>[0.020269228145480156]</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[0.10115989297628403]</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[0.0480760894715786]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>[0.17660756409168243]</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[0.07740726321935654]</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[0.04552404209971428]</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[-0.09565360099077225]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>[0.17711101472377777]</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>[-0.08209935575723648]</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[0.006188147235661745]</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[-0.013604273088276386]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[0.26541662216186523]</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>[0.23277932405471802]</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[-0.15586316585540771]</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[-0.11098860949277878]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[-0.10149804502725601]</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>[0.15097220242023468]</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[-0.2016301304101944]</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[-0.049076493829488754]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>[-0.1429641991853714]</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>[-0.3182298243045807]</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[-0.10713925212621689]</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[0.11484480649232864]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>[-8.207662176573649e-07]</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>[-0.18088316917419434]</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[0.197395458817482]</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[-0.09153396636247635]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>[0.00395422475412488]</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>[0.0793805792927742]</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[-0.21249480545520782]</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[0.19689629971981049]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>[0.020187711343169212]</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>[-0.04698941484093666]</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[-0.11789615452289581]</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[-0.0002821489761117846]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>[-0.10270832479000092]</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>[-0.13100221753120422]</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[-0.13670115172863007]</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[-0.2806791365146637]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>[-0.016753945499658585]</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>[-0.23637951910495758]</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[-0.03787919133901596]</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[-0.33666926622390747]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>[0.18191279470920563]</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>[0.14524954557418823]</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[-0.12061835080385208]</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[0.2521738111972809]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>[-0.07866121083498001]</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>[-0.006234727334231138]</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[-0.2404300421476364]</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[-0.09008311480283737]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>[-0.10731099545955658]</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>[-0.011465022340416908]</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[-0.26866307854652405]</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[-0.0450299009680748]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[-0.0368698425590992]</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>[0.03484523296356201]</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[-0.04027242586016655]</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[0.10396085679531097]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>[-0.014619986526668072]</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>[0.11148651689291]</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[-0.1004507914185524]</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[-0.0010636876104399562]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>[-0.3460644781589508]</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[-0.031465448439121246]</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[0.11981958895921707]</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[-0.3013644814491272]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>[-0.11350901424884796]</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[-0.007150768768042326]</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[-0.0013902838109061122]</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[-0.23678074777126312]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>[-0.2910427749156952]</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>[-0.038284946233034134]</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[-0.16228745877742767]</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[-0.19252581894397736]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>[0.0163847915828228]</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>[-0.11408009380102158]</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[0.12502546608448029]</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[-0.14069509506225586]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>[-0.18616211414337158]</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>[0.12465616315603256]</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[-0.273404061794281]</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[0.2524888515472412]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>[0.21652422845363617]</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>[-0.112111896276474]</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[0.09042540192604065]</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[-0.17757929861545563]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>[0.3647277355194092]</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>[0.05940614268183708]</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[0.17345817387104034]</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[0.09936138987541199]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>[0.10019640624523163]</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>[-0.15727809071540833]</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[0.03710845485329628]</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[0.12281577289104462]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[-0.039120886474847794]</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>[0.175914466381073]</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[0.12365581840276718]</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[0.03551950305700302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>[-0.1353330761194229]</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>[-0.1035485714673996]</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[-0.12645287811756134]</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[0.04296199604868889]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>[-0.011748814955353737]</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[0.042534876614809036]</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[0.19592414796352386]</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[0.023267939686775208]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>[0.028780868276953697]</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>[-0.2665215730667114]</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[0.10994938015937805]</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[0.13932771980762482]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>[-0.1137603372335434]</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>[0.03899569436907768]</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[0.005412249825894833]</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[-0.04442557319998741]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>[0.06276638060808182]</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>[-0.140006422996521]</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[0.022257700562477112]</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[-0.05197937786579132]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>[-0.05320519953966141]</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[-0.13856633007526398]</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[-0.24408312141895294]</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[-0.19181349873542786]</t>
         </is>
       </c>
     </row>
@@ -1492,7 +5692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,22 +5728,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.025700408965349197]</t>
+          <t>[-0.14642111957073212]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1.0356087684631348]</t>
+          <t>[1.0519458055496216]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.1860029697418213]</t>
+          <t>[-0.13278938829898834]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.1719628870487213]</t>
+          <t>[0.08521564304828644]</t>
         </is>
       </c>
     </row>
@@ -1553,22 +5753,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.1819797158241272]</t>
+          <t>[-0.2089676707983017]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1.1680214405059814]</t>
+          <t>[1.1205768585205078]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.21203570067882538]</t>
+          <t>[0.22032541036605835]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.2466823309659958]</t>
+          <t>[0.07888533174991608]</t>
         </is>
       </c>
     </row>
@@ -1578,22 +5778,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0.2515421211719513]</t>
+          <t>[0.20371019840240479]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1.1535176038742065]</t>
+          <t>[1.1105165481567383]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-0.25159281492233276]</t>
+          <t>[0.2066444307565689]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.0380123145878315]</t>
+          <t>[-0.016689226031303406]</t>
         </is>
       </c>
     </row>
@@ -1603,22 +5803,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[-0.10106895864009857]</t>
+          <t>[0.1521039605140686]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1.0280174016952515]</t>
+          <t>[1.221856713294983]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[-0.06673683971166611]</t>
+          <t>[-0.19486284255981445]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.06585966795682907]</t>
+          <t>[0.11165560036897659]</t>
         </is>
       </c>
     </row>
@@ -1628,22 +5828,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0.2668624222278595]</t>
+          <t>[0.18370147049427032]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[1.2003068923950195]</t>
+          <t>[1.1040548086166382]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.2650144696235657]</t>
+          <t>[0.17680136859416962]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.04734461009502411]</t>
+          <t>[-0.07975482195615768]</t>
         </is>
       </c>
     </row>
@@ -1653,22 +5853,222 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-0.3108270466327667]</t>
+          <t>[0.18173077702522278]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[1.2588295936584473]</t>
+          <t>[1.0632855892181396]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[-0.3009273409843445]</t>
+          <t>[0.15495985746383667]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.06390859186649323]</t>
+          <t>[0.03448445722460747]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[0.11228016763925552]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[1.0992870330810547]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.17478525638580322]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[-0.07695582509040833]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[-0.24542805552482605]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[1.2740472555160522]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.22959505021572113]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[-0.0042724572122097015]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[-0.1237066239118576]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[1.0593299865722656]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.13087907433509827]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[-0.07213006913661957]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[0.1936563104391098]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[1.1216448545455933]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.22279705107212067]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.12299366295337677]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[-0.11212920397520065]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[1.067609190940857]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[0.15309886634349823]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[-0.03626292198896408]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[-0.11711298674345016]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[1.2046899795532227]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[0.10572601854801178]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[-0.2619706690311432]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[0.14220848679542542]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[1.074520230293274]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[-0.13323836028575897]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.10666375607252121]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[0.1878652423620224]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[1.099271297454834]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[-0.17500214278697968]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[0.011335810646414757]</t>
         </is>
       </c>
     </row>
